--- a/src/main/java/com/awinas/learning/leetcode/medium/SubSets_1.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/medium/SubSets_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/medium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07615DCD-82B9-CB4E-B933-C8FF20F4A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AA2640-7BA5-E441-87CE-266D910AFE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33540" windowHeight="21580" xr2:uid="{34A42EEF-BB64-FC4D-BDE3-5DA5A76DAD31}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{34A42EEF-BB64-FC4D-BDE3-5DA5A76DAD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>1,2,3,4</t>
   </si>
@@ -79,15 +79,175 @@
   <si>
     <t>[[], [1], [1, 2], [1, 2, 3], [1, 2, 3, 4], [1, 2, 4], [1, 3], [1, 3, 4], [1, 4], [2], [2, 3], [2, 3, 4], [2, 4], [3], [3, 4], [4]]</t>
   </si>
+  <si>
+    <t>index 0</t>
+  </si>
+  <si>
+    <t>current [1]</t>
+  </si>
+  <si>
+    <t>index 1</t>
+  </si>
+  <si>
+    <t>res = []</t>
+  </si>
+  <si>
+    <t>res [1]</t>
+  </si>
+  <si>
+    <t>current []</t>
+  </si>
+  <si>
+    <t>current [1,2]</t>
+  </si>
+  <si>
+    <t>index 2</t>
+  </si>
+  <si>
+    <t>res[1,2]</t>
+  </si>
+  <si>
+    <t>current [1,2,3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>index 3</t>
+  </si>
+  <si>
+    <t>res[1,2,3]</t>
+  </si>
+  <si>
+    <t>current [1,2,3,4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>index 4</t>
+  </si>
+  <si>
+    <t>res[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>for loop ended</t>
+  </si>
+  <si>
+    <t>*Rec*</t>
+  </si>
+  <si>
+    <t>current [1,2,4]</t>
+  </si>
+  <si>
+    <t>*rec*</t>
+  </si>
+  <si>
+    <t>current [1,2]  R</t>
+  </si>
+  <si>
+    <t>current [1,2,3]  R</t>
+  </si>
+  <si>
+    <t>res [1,2,4]</t>
+  </si>
+  <si>
+    <t>forloop ended</t>
+  </si>
+  <si>
+    <t>current [1,3]</t>
+  </si>
+  <si>
+    <t>res[1,3]</t>
+  </si>
+  <si>
+    <t>current [1,3,4]</t>
+  </si>
+  <si>
+    <t>res[1,3,4]</t>
+  </si>
+  <si>
+    <t>For Loop Skipped (index &lt; num)</t>
+  </si>
+  <si>
+    <t>current[]</t>
+  </si>
+  <si>
+    <t>current[1,4]</t>
+  </si>
+  <si>
+    <t>res[1,4]</t>
+  </si>
+  <si>
+    <t>current[1]</t>
+  </si>
+  <si>
+    <t>current [2]</t>
+  </si>
+  <si>
+    <t>res [2]</t>
+  </si>
+  <si>
+    <t>res [2,3]</t>
+  </si>
+  <si>
+    <t>current [2,3]</t>
+  </si>
+  <si>
+    <t>current [2,3,4]</t>
+  </si>
+  <si>
+    <t>res [2,3,4]</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>current [2,4]</t>
+  </si>
+  <si>
+    <t>res [2,4]</t>
+  </si>
+  <si>
+    <t>R -&gt; Removed</t>
+  </si>
+  <si>
+    <t>current [3]</t>
+  </si>
+  <si>
+    <t>forloop contd</t>
+  </si>
+  <si>
+    <t>res [3]</t>
+  </si>
+  <si>
+    <t>current [3,4]</t>
+  </si>
+  <si>
+    <t>res [3,4]</t>
+  </si>
+  <si>
+    <t>current [4]</t>
+  </si>
+  <si>
+    <t>res [4]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -195,11 +355,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -210,10 +465,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +713,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>692040</xdr:colOff>
+      <xdr:colOff>95140</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>780</xdr:rowOff>
     </xdr:to>
@@ -697,7 +973,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342540</xdr:colOff>
+      <xdr:colOff>215540</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>16220</xdr:rowOff>
     </xdr:to>
@@ -892,7 +1168,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>308360</xdr:colOff>
+      <xdr:colOff>155960</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50380</xdr:rowOff>
     </xdr:to>
@@ -1022,7 +1298,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>796800</xdr:colOff>
+      <xdr:colOff>479300</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>102900</xdr:rowOff>
     </xdr:to>
@@ -1858,6 +2134,2341 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4F2FDA-D362-B2B8-2FAA-18F3984C9936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4178300" y="7505700"/>
+          <a:ext cx="749300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B48773-3B6C-E644-A04C-A909EA1A8AC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="8102600"/>
+          <a:ext cx="749300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679863E3-DC17-2142-9475-DA56E08F0054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10045700" y="9296400"/>
+          <a:ext cx="749300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5B29F2-E109-A94B-9848-396865715A4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617200" y="9296400"/>
+          <a:ext cx="749300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CE770D-D8FC-2A41-BDD6-2E29EADC3C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7759700" y="8724900"/>
+          <a:ext cx="749300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC42AF07-CD4F-621B-5788-557BB4E82C26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9702800" y="9740900"/>
+          <a:ext cx="1638300" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D7F43A-4CAC-A12F-3F33-3E92157C31BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7747000" y="8928100"/>
+          <a:ext cx="660400" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E5D056-9513-AA48-A316-B6D6E96D8E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="10134600"/>
+          <a:ext cx="749300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AE729F-D950-BF55-71C3-9BCF8E7AF331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11823700" y="9093200"/>
+          <a:ext cx="0" cy="1358900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813280D8-1874-8F4B-B79D-B5BC78834E1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10591800" y="8191500"/>
+          <a:ext cx="850900" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A0E1DF-E3A6-001F-B6A9-83EC1CCEA15D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10807700" y="12623800"/>
+          <a:ext cx="635000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279F6EBA-84F6-4DAA-A3DE-CBF8B1DD7FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12407900" y="13195300"/>
+          <a:ext cx="660400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F037D8FB-1EB6-4896-A3DF-45D99F126B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="8420100"/>
+          <a:ext cx="38100" cy="3683000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF899A6C-3BF7-B0DF-946C-3B6CC7BF54D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10160000" y="12954000"/>
+          <a:ext cx="0" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Arrow Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED672A04-285E-94E6-4FE6-886CC2F79A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8597900" y="7581900"/>
+          <a:ext cx="1231900" cy="7073900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB55C652-10FC-E2BC-D98B-14223130DADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7950200" y="7874000"/>
+          <a:ext cx="63500" cy="7683500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C4958F-FC8D-7BA0-FABF-0ED4276C658E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8597900" y="16065500"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Straight Arrow Connector 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7622D2A3-CB75-3A44-A641-F821870E4193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="16675100"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Straight Arrow Connector 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FFC021-28BE-1741-840C-2426313D74E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12204700" y="17272000"/>
+          <a:ext cx="774700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8F14A3-C12D-7F4A-9809-541D65A4C859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9956800" y="16992600"/>
+          <a:ext cx="38100" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Straight Arrow Connector 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B3CE84-E553-9B4B-91E0-EF541F2EAB57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12230100" y="17703800"/>
+          <a:ext cx="736600" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Arrow Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E78117-0B60-0F45-90E7-48E5B0693E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10439400" y="16764000"/>
+          <a:ext cx="863600" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9C3C41-1541-F046-A79A-79BB6FCEC061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10528300" y="18897600"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Straight Arrow Connector 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EC3ABC-3487-B34F-9249-D587C25A8142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10541000" y="19316700"/>
+          <a:ext cx="736600" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C96419E-1494-D140-A817-A7BFB9964AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8585200" y="16179800"/>
+          <a:ext cx="1079500" cy="3187700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Straight Arrow Connector 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5111FC9E-4943-2348-ADC3-1DDBC7AAAAAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8597900" y="16065500"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Arrow Connector 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E52A52A-DD3E-7A46-9B33-AD2F650E68B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="16675100"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Straight Arrow Connector 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44369F14-3398-A44E-9C3D-F79419D46E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10553700" y="21234400"/>
+          <a:ext cx="736600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F53E84-6455-2D49-9278-963E8242E7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8610600" y="20586700"/>
+          <a:ext cx="1079500" cy="1117600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="Straight Arrow Connector 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A272CCB-1233-974D-B41A-FB243821947E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8674100" y="22987000"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Straight Arrow Connector 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A783A39-4698-6544-B72F-00FF1B2B9191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8712200" y="23025100"/>
+          <a:ext cx="901700" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="Straight Arrow Connector 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B658150-F844-1741-9D5B-E9498BF9C576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7899400" y="20929600"/>
+          <a:ext cx="38100" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="Straight Arrow Connector 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB7F80B-C577-044A-99A4-92FFEC3B26E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="16586200"/>
+          <a:ext cx="38100" cy="3378200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="Graphic 187" descr="Badge with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B94609-60A0-5FEA-E979-9DDB8355BEB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="7708900"/>
+          <a:ext cx="406400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="Graphic 189" descr="Badge 3 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1177882-5CB1-BB64-B72C-4C83C27BB07B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="8343900"/>
+          <a:ext cx="368300" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>316511</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>75685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="192" name="Graphic 191" descr="Badge 4 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B80B7C-FB5E-A153-C137-9023E2B4B4F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478000" y="8839200"/>
+          <a:ext cx="406400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>697089</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="194" name="Graphic 193" descr="Badge 5 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF9895B-F015-EAF2-B4CF-ED32BEDC80BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId58"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11696700" y="9537700"/>
+          <a:ext cx="406400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>194212</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>602175</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="196" name="Graphic 195" descr="Badge 6 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CCD093-3CAF-4601-5C69-D89CC6904064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId60"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12348112" y="10617200"/>
+          <a:ext cx="407963" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="198" name="Graphic 197" descr="Badge 7 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B23613E-3BCD-7462-1F8F-538F124BD7A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10033000" y="9918700"/>
+          <a:ext cx="419100" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>194235</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>613062</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>157069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="Graphic 199" descr="Badge 8 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E911E8DB-FA22-FEC8-EA54-B2C6CBED10AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10697135" y="12293600"/>
+          <a:ext cx="448236" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>648728</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>164704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="Graphic 201" descr="Badge 9 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED83869-AE33-8681-8C5F-10BCC6C99219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12319000" y="12750800"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="204" name="Graphic 203" descr="Badge 10 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797189AE-4560-2653-6100-83D76BB45936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="13182600"/>
+          <a:ext cx="368300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="Graphic 205" descr="Badge 1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BD63A4-B72C-6320-6AE4-3A700E151E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId70"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8737600" y="7061200"/>
+          <a:ext cx="393700" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="Straight Arrow Connector 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F1E322-EDDE-3C48-8C5F-851E4125FF34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10604500" y="14211300"/>
+          <a:ext cx="660400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1942,9 +4553,9 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1537 24575,'15'0'0,"-1"0"0,0 0 0,-2 0 0,5 0 0,1 0 0,4 0 0,-1 0 0,-3 0 0,-3 0 0,-2 0 0,-3 0 0,-2 2 0,0 0 0,-1 2 0,-2 2 0,-2 1 0,-2 1 0,-1 2 0,0-1 0,0 0 0,0 1 0,0 2 0,0 0 0,0 1 0,0-2 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,-2 2 0,0 0 0,-3 1 0,1-1 0,-1-2 0,0 0 0,2 0 0,-2-1 0,3 0 0,-1 0 0,0-1 0,1 0 0,-2 0 0,-1 1 0,2 0 0,-1-1 0,1-1 0,0-4 0,1-4 0,3-1 0,2-5 0,1 1 0,2 0 0,0-3 0,2 3 0,0 0 0,1-1 0,1-1 0,-1-1 0,1 0 0,-1-1 0,1 3 0,2 0 0,3-1 0,5 2 0,4-1 0,0 1 0,-3 4 0,-3-2 0,0 1 0,1 1 0,-1-2 0,-2 1 0,-3 0 0,-2 1 0,-2 1 0,-3 1 0,-5 0 0,-4 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2709">3662 1 24575,'9'0'0,"2"0"0,-3 0 0,2 1 0,-1 4 0,-2 1 0,-2 3 0,-1 0 0,-1 1 0,0-1 0,-1-1 0,-2 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 0 0,-2 1 0,-2-1 0,-1 2 0,-2-3 0,3 0 0,-1-1 0,0 1 0,3 1 0,-2-1 0,0-1 0,0 0 0,-3-2 0,2 2 0,1-2 0,1-1 0,9-7 0,0-4 0,10-8 0,-3 2 0,2 2 0,2 6 0,1 2 0,5 3 0,-1 1 0,-1-1 0,0 1 0,-4 0 0,-1 0 0,-4 0 0,-2 0 0,-1 0 0,-2 1 0,-2 3 0,-3 2 0,-2 2 0,0 1 0,0 2 0,0 2 0,0-1 0,0 3 0,0-2 0,0-1 0,0 0 0,-2-3 0,-2 1 0,-1 0 0,-1 1 0,-1 2 0,0 0 0,-5 0 0,0-1 0,-1-1 0,1-1 0,2-1 0,0 3 0,0 1 0,2-1 0,1 0 0,2-4 0,0 0 0,-1 0 0,2 0 0,-1-1 0,0 1 0,0-3 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 0 0,-2-1 0,3-1 0,0-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4586">3528 108 24575,'10'0'0,"1"0"0,-2 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-2-2 0,0 0 0,0-1 0,0-1 0,3 2 0,-3-3 0,-1 0 0,0 3 0,-3 0 0,-3 2 0,-4 0 0,0 0 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1526 24575,'15'0'0,"-1"0"0,0 0 0,-2 0 0,5 0 0,1 0 0,4 0 0,-1 0 0,-3 0 0,-3 0 0,-2 0 0,-3 0 0,-2 1 0,0 1 0,-1 2 0,-2 2 0,-2 1 0,-2 1 0,-1 2 0,0-1 0,0 0 0,0 1 0,0 2 0,0 0 0,0 1 0,0-2 0,0-1 0,0-1 0,0 2 0,0 0 0,0-1 0,-2 2 0,0 0 0,-3 1 0,1-1 0,-1-2 0,0 0 0,2 0 0,-2-1 0,3 0 0,-1-1 0,0 0 0,1 0 0,-2 0 0,-1 1 0,2 0 0,-1-1 0,1-1 0,0-4 0,1-4 0,3-1 0,2-5 0,1 1 0,2 0 0,0-3 0,2 3 0,0 0 0,1-1 0,1-1 0,-1 0 0,1-1 0,-1-1 0,1 3 0,2 0 0,3-1 0,5 2 0,4-1 0,0 1 0,-3 4 0,-3-2 0,0 1 0,1 1 0,-1-2 0,-2 1 0,-3 0 0,-2 1 0,-2 1 0,-3 1 0,-5 0 0,-4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2709">3663 1 24575,'9'0'0,"2"0"0,-3 0 0,2 1 0,-1 4 0,-2 1 0,-2 3 0,-1 0 0,-1 1 0,0-1 0,-1-1 0,-2 0 0,0-1 0,0 1 0,0 1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 0 0,-2 0 0,-2 0 0,-1 2 0,-2-3 0,3 0 0,-1-1 0,0 1 0,3 1 0,-2-1 0,0-1 0,0 0 0,-3-2 0,2 2 0,1-2 0,1-1 0,9-7 0,0-4 0,10-8 0,-3 2 0,2 2 0,2 6 0,1 2 0,5 3 0,-1 1 0,-1-1 0,0 1 0,-4 0 0,-1 0 0,-4 0 0,-2 0 0,-1 0 0,-2 1 0,-2 3 0,-3 2 0,-2 2 0,0 1 0,0 2 0,0 2 0,0-1 0,0 3 0,0-2 0,0-2 0,0 1 0,-2-3 0,-2 1 0,-1 0 0,-1 1 0,-1 2 0,0 0 0,-5 0 0,0-1 0,-1-1 0,1-1 0,2-2 0,0 4 0,0 1 0,2-1 0,1 0 0,2-4 0,0 0 0,-1 0 0,2 0 0,-1-1 0,0 1 0,0-3 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 0 0,-2-1 0,3-2 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4586">3529 107 24575,'10'0'0,"1"0"0,-2 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-2-2 0,0 0 0,0-1 0,0-1 0,3 2 0,-3-3 0,-1 0 0,0 3 0,-3 0 0,-3 2 0,-4 0 0,0 0 0,1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2000,8 +4611,8 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 3422 24575,'27'-4'0,"7"0"0,17 4 0,18 0 0,7 0 0,-26 0 0,0 0 0,43 0 0,7 0-917,-1 0 917,-7 0 0,-42 0 0,0 0 0,45-3 0,-1-8 0,-42 3 0,-1-3 0,1-1 0,-1-2 0,42-12 0,-12 6 0,-6-4 0,-3 2 0,14-12 0,4-7 0,-44 18 0,1 0 0,3-4 0,1-2 0,-1 0 0,2 0 0,5-4 0,0 0 0,-3 1 0,1-2 0,1-1 0,0 0 0,0 0 0,-1-1 0,-1 1 0,-2-2 0,0 2 0,-1-1 0,-6 5 0,-1 0 0,-2 1 0,0 0 0,0 0 0,0 0 0,1-1 0,0-1 0,0 1 0,1-1 0,3-3 0,0 0 0,-3 2 0,-1 1 0,-1-1 0,-1 1 0,-1 1 0,-1 1 151,28-21-151,2 0 0,-5 1 0,0-7 0,-3 2 0,3-5 0,-3 4 0,-1-1 0,7-7-804,3-3 804,-33 30 0,1 1 0,35-32-386,-6 5 386,-5 7 0,-5 6 648,-9 8-648,-2 8 71,-5 6-71,-2 6 819,2 1-819,-3 1 0,-2 1 418,2-1-418,-2-1 0,2 0 0,1-2 0,-6 2 0,-3 3 0,-7 1 0,-5 3 0,-2 1 0,0 0 0,3-3 0,2-3 0,2-4 0,2 0 0,2-1 0,3-4 0,1-2 0,2-2 0,-3 3 0,-1 4 0,-2 2 0,-2 5 0,0-2 0,-3 2 0,0 1 0,-1-2 0,0 4 0,-1 1 0,-1 2 0,-2 1 0,-1-1 0,0 1 0,-1 0 0,-1 1 0,0 0 0,2-5 0,5-4 0,6-4 0,5-5 0,4-6 0,5-5 0,-2 1 0,-2 1 0,-9 12 0,-8 5 0,-4 3 0,-5 6 0,1 1 0,-2 4 0,0 2 0,-3 3 0,-6 0 0,-6 5 0,-33 20 0,24-15 0,-20 14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1693">5457 79 24575,'25'0'0,"0"0"0,7 0 0,6 0 0,6 0 0,-1 0 0,-5 0 0,-8 0 0,-9 0 0,-5 0 0,-5 0 0,-3 0 0,2 0 0,-1 0 0,0 0 0,3 0 0,2 0 0,4 0 0,0 0 0,0 0 0,-3 0 0,-4 0 0,0 0 0,-3 0 0,-1 2 0,-1 1 0,-4 5 0,-1 3 0,-1 0 0,0 0 0,0-2 0,0 0 0,0 3 0,0 3 0,0 3 0,0 2 0,0 2 0,0 4 0,0 4 0,0 6 0,0-1 0,0 1 0,0-1 0,0-5 0,0-2 0,0-3 0,0-5 0,0-5 0,0-3 0,0-3 0,0-1 0,0 0 0,0 0 0,0 1 0,0 1 0,0-1 0,0 1 0,0-1 0,0-4 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 3328 24575,'27'-4'0,"7"0"0,17 4 0,19 0 0,6 0 0,-26 0 0,0 0 0,43 0 0,8 0-917,-2 0 917,-7 0 0,-41 0 0,-1 0 0,45-3 0,-1-7 0,-42 2 0,0-3 0,0-1 0,-1-1 0,42-12 0,-12 5 0,-5-3 0,-4 1 0,14-11 0,5-7 0,-45 18 0,1 0 0,3-5 0,1-1 0,-1 0 0,2 0 0,6-4 0,-1 0 0,-3 1 0,1-3 0,1 0 0,1 0 0,-1 0 0,-1-1 0,-1 1 0,-2-2 0,0 2 0,0-1 0,-7 5 0,-1 0 0,-2 1 0,0 0 0,0-1 0,0 1 0,2-1 0,-1-1 0,0 1 0,1-1 0,3-3 0,0 0 0,-3 2 0,0 0 0,-2 0 0,-1 1 0,-1 1 0,-1 1 151,28-21-151,2 1 0,-4 0 0,-1-6 0,-3 1 0,3-4 0,-3 3 0,0 0 0,6-7-804,3-4 804,-33 31 0,1-1 0,36-30-386,-7 5 386,-5 7 0,-5 5 648,-9 8-648,-2 8 71,-4 6-71,-3 5 819,2 2-819,-3 1 0,-2 0 418,2 0-418,-2-2 0,2 1 0,2-3 0,-7 3 0,-3 3 0,-7 0 0,-5 3 0,-2 2 0,0-1 0,3-2 0,2-4 0,2-3 0,2-1 0,2 0 0,3-4 0,2-2 0,1-3 0,-3 4 0,-1 4 0,-2 2 0,-2 4 0,0-1 0,-3 1 0,0 2 0,-1-3 0,0 4 0,-1 2 0,-1 1 0,-1 2 0,-2-2 0,0 1 0,-1 0 0,-1 2 0,0-1 0,2-5 0,5-3 0,6-4 0,5-6 0,4-5 0,5-5 0,-2 1 0,-1 1 0,-10 12 0,-8 5 0,-4 2 0,-5 6 0,1 2 0,-2 3 0,0 2 0,-3 3 0,-6 0 0,-6 5 0,-33 19 0,24-14 0,-20 13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1693">5474 77 24575,'25'0'0,"1"0"0,6 0 0,6 0 0,6 0 0,-1 0 0,-5 0 0,-8 0 0,-9 0 0,-5 0 0,-5 0 0,-3 0 0,2 0 0,0 0 0,-1 0 0,3 0 0,2 0 0,4 0 0,0 0 0,0 0 0,-3 0 0,-4 0 0,0 0 0,-3 0 0,-1 2 0,-1 1 0,-4 4 0,-1 4 0,-1 0 0,0 0 0,0-3 0,0 1 0,0 3 0,0 2 0,0 4 0,0 1 0,0 3 0,0 3 0,0 4 0,0 6 0,0-1 0,0 1 0,0-1 0,0-5 0,0-1 0,0-4 0,0-5 0,0-4 0,0-3 0,0-4 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 1 0,0-2 0,0-3 0,0-1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2029,8 +4640,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2356 0 24575,'28'0'0,"8"0"0,45 2 0,-2 2 0,9 2 0,-7 4 0,-21 0 0,4 5 0,-16-2 0,-4 0 0,-9-2 0,-7-3 0,-4 3 0,-8-2 0,0-1 0,-3 1 0,-2-1 0,0 0 0,-1-1 0,0 0 0,0 0 0,-1 1 0,1-2 0,2 2 0,3 0 0,0 1 0,3 1 0,-1 0 0,-3-1 0,2-1 0,-3 1 0,-3-2 0,2 0 0,-2 0 0,0 0 0,0 2 0,1 1 0,2-1 0,2 1 0,3 1 0,-3-1 0,0-1 0,-3 1 0,-4-2 0,0-2 0,0 0 0,0 0 0,2 0 0,-1 0 0,0-1 0,1 0 0,-1 2 0,1-2 0,0 2 0,-1 0 0,0-2 0,0 1 0,0-1 0,-2-1 0,2 2 0,-1 0 0,1 2 0,1 2 0,-1-1 0,-1 0 0,-2-2 0,-1-1 0,-3 0 0,2-2 0,-2 2 0,0 0 0,2 0 0,1-2 0,0 0 0,-1 0 0,-2 3 0,-2 1 0,1-2 0,2 0 0,-1 1 0,1-2 0,-1 0 0,1 1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 2 0,1-1 0,1-1 0,0-5 0,-2-4 0,-2-5 0,-3-2 0,-1 1 0,0-2 0,1-1 0,-2 0 0,0-1 0,-1 2 0,-2 2 0,-1 0 0,0 3 0,-3 0 0,-1-1 0,-2 3 0,0-1 0,0 1 0,0-2 0,0 1 0,0 0 0,1-1 0,-1 3 0,-1-1 0,0 2 0,0 1 0,1-1 0,2 1 0,0 0 0,1 0 0,2 0 0,0 0 0,1 2 0,0 2 0,0 3 0,-1 2 0,-3 6 0,-3 4 0,-7 9 0,-6 6 0,-11 14 0,-5 4 0,1 0 0,-3 2 0,5-6 0,-2 3 0,6-7 0,4-4 0,4-5 0,7-6 0,0-2 0,4-1 0,-1 4 0,-3 6 0,-4 6 0,-1 3 0,-4 3 0,-1 4 0,1-3 0,-1-1 0,5-4 0,1-5 0,4-2 0,4-7 0,2 0 0,2-4 0,3-1 0,-3 1 0,1 1 0,-3 4 0,0 3 0,1 1 0,-1 0 0,4 0 0,2 0 0,-1 0 0,3-2 0,-2 1 0,1-4 0,0 8 0,-1 3 0,2 8 0,-1 10 0,1-2 0,-1 5 0,-3-3 0,3-6 0,1-6 0,2-10 0,3-7 0,1-8 0,3-7 0,0-1 0,0-2 0,0 1 0,0 0 0,0-2 0,0 2 0,0 0 0,0 0 0,0-1 0,0-2 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,-2-2 0,-2-3 0,-4-2 0,-1-4 0,1 0 0,0-2 0,0-3 0,-1 0 0,0-3 0,-1 1 0,1 2 0,-1 0 0,2 2 0,0 1 0,0 0 0,0 2 0,-1 0 0,-1 1 0,0 1 0,-1-1 0,-7 1 0,-6 0 0,-7 0 0,-14 3 0,-4 3 0,-6 7 0,-6 6 0,11 1 0,-4 3 0,4-1 0,1 3 0,-5 3 0,2 1 0,0 0 0,0 0 0,3 3 0,1 0 0,-2 4 0,0 0 0,1 0 0,1-1 0,8-5 0,5-4 0,5-3 0,5-1 0,0 0 0,2 2 0,-2 1 0,-1 6 0,-1 4 0,-3 2 0,-1 2 0,-1 2 0,-2 3 0,-2 5 0,4-2 0,1-5 0,4-5 0,3 0 0,-1 1 0,0 1 0,2-2 0,2-5 0,3 0 0,1-3 0,2 5 0,-2 1 0,-3 4 0,-2 6 0,-2 1 0,0 3 0,4-8 0,1-2 0,3-3 0,3-4 0,-1 0 0,3-7 0,2-4 0,1-4 0,2-4 0,2-2 0,2-1 0,1 0 0,1-1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 2 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-3 0,-2 0 0,1-5 0,0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1783">0 4495 24575,'0'10'0,"0"4"0,2 3 0,3 2 0,2-2 0,1-2 0,-1 0 0,-2-2 0,2 0 0,-1-2 0,1 0 0,-2-1 0,0-2 0,0-1 0,0 0 0,1 1 0,1 1 0,1 1 0,-2-1 0,1 0 0,-1 0 0,2-2 0,0 1 0,0 1 0,2 0 0,-3 0 0,0 1 0,0-1 0,1-1 0,-1-1 0,0-2 0,-3-4 0,-1-3 0,0-4 0,2-5 0,1-1 0,4-1 0,2 1 0,6-1 0,3-1 0,6 0 0,0 1 0,-4 3 0,0 1 0,-2 0 0,-2 0 0,-2-1 0,-3 2 0,-3 2 0,-1 1 0,-4 4 0,-2-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2369 0 24575,'28'0'0,"8"0"0,45 2 0,-1 2 0,8 2 0,-6 3 0,-22 1 0,4 5 0,-15-3 0,-5 1 0,-9-2 0,-7-4 0,-4 4 0,-7-2 0,-1-2 0,-3 2 0,-2-1 0,0 0 0,-1-1 0,0-1 0,0 1 0,-1 1 0,1-2 0,2 1 0,3 1 0,0 1 0,3 1 0,-1-1 0,-2 0 0,1-1 0,-3 1 0,-3-3 0,2 1 0,-2 0 0,0 0 0,0 2 0,1 0 0,2 0 0,2 1 0,3 0 0,-3 0 0,0-1 0,-2 0 0,-5-1 0,0-2 0,0 0 0,0 0 0,2 0 0,-1-1 0,0 0 0,1 0 0,-1 2 0,1-2 0,0 2 0,-1-1 0,0-1 0,0 1 0,0-1 0,-2-1 0,2 2 0,-1-1 0,1 3 0,1 2 0,0-1 0,-2-1 0,-2-1 0,-1-1 0,-3 0 0,2-2 0,-2 1 0,0 1 0,2 0 0,1-2 0,0 0 0,-1 0 0,-2 3 0,-2 0 0,1-1 0,2 0 0,-1 1 0,1-2 0,-1-1 0,1 2 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 2 0,1-1 0,1-1 0,0-6 0,-2-2 0,-2-6 0,-3-2 0,-1 1 0,0-1 0,1-2 0,-2 0 0,0 0 0,-1 1 0,-2 2 0,-1 0 0,0 3 0,-3 1 0,-1-2 0,-3 3 0,1-1 0,0 1 0,0-2 0,0 1 0,0 0 0,1 0 0,-1 2 0,-1-1 0,0 2 0,0 1 0,1-1 0,2 1 0,-1 0 0,2 0 0,2 0 0,0 0 0,1 2 0,0 2 0,0 2 0,-1 3 0,-3 6 0,-3 3 0,-7 9 0,-6 6 0,-12 14 0,-4 3 0,1 1 0,-3 1 0,4-5 0,-1 2 0,6-6 0,4-4 0,4-5 0,7-6 0,-1-2 0,5-1 0,-1 5 0,-3 4 0,-4 7 0,-1 3 0,-4 3 0,-2 3 0,2-2 0,-1-2 0,5-3 0,1-5 0,4-2 0,4-7 0,1 0 0,3-4 0,3-1 0,-3 2 0,1 0 0,-3 4 0,0 3 0,1 1 0,-1 0 0,4 0 0,2 0 0,-1 0 0,3-2 0,-2 1 0,0-4 0,1 8 0,-1 2 0,2 9 0,-1 9 0,1-1 0,-1 4 0,-3-3 0,3-5 0,1-7 0,2-9 0,3-7 0,1-7 0,3-8 0,0 0 0,0-3 0,0 2 0,0 0 0,0-3 0,0 3 0,0-1 0,0 1 0,0-1 0,0-3 0,0 1 0,0 0 0,0-1 0,0-1 0,0 1 0,-2-2 0,-2-3 0,-4-2 0,-1-4 0,1 0 0,0-2 0,0-3 0,-1 0 0,0-2 0,-2 0 0,2 2 0,-1 0 0,2 2 0,0 2 0,0-1 0,0 2 0,-1 0 0,-1 1 0,0 1 0,-1-1 0,-7 1 0,-6 0 0,-7 0 0,-15 3 0,-3 3 0,-6 6 0,-7 7 0,12 0 0,-4 3 0,4 0 0,0 2 0,-4 3 0,2 1 0,0 0 0,-1 1 0,4 2 0,1 0 0,-3 4 0,1 0 0,1 0 0,1-2 0,7-3 0,6-5 0,5-3 0,5-1 0,0 1 0,2 1 0,-2 1 0,-2 6 0,0 4 0,-3 2 0,-1 2 0,-1 2 0,-2 3 0,-3 4 0,5-1 0,1-5 0,4-5 0,3-1 0,-1 2 0,0 1 0,1-2 0,3-5 0,3 0 0,1-3 0,2 5 0,-2 1 0,-3 4 0,-2 6 0,-2 1 0,-1 2 0,5-7 0,1-2 0,3-3 0,3-4 0,-1 0 0,3-7 0,2-4 0,1-3 0,2-4 0,2-3 0,2 0 0,1 0 0,1-2 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 2 0,0-1 0,0-1 0,0 2 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-3 0,-2-1 0,1-4 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1783">0 4363 24575,'0'9'0,"0"5"0,2 2 0,3 3 0,2-3 0,1-1 0,-1-1 0,-2-1 0,2 0 0,-1-3 0,1 1 0,-2-1 0,0-3 0,0 0 0,0 0 0,1 1 0,1 1 0,2 0 0,-3 0 0,1 0 0,-1-1 0,2-1 0,0 1 0,0 1 0,2-1 0,-3 1 0,0 1 0,0-1 0,1-2 0,-1 0 0,0-2 0,-3-4 0,-1-3 0,0-4 0,2-4 0,1-2 0,4-1 0,2 2 0,6-2 0,3-1 0,7 1 0,-1 0 0,-4 4 0,0 0 0,-2 0 0,-2 0 0,-2 0 0,-3 1 0,-3 2 0,0 1 0,-5 4 0,-2-1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2057,8 +4668,8 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 3803 24575,'40'0'0,"9"0"0,9 0 0,15 0 0,15 0-866,-39 0 0,2 0 866,6-1 0,2-1 0,0-1 0,1-1 0,-6 1 0,0-2 178,44-8-178,-5-5 0,-13-2 0,-32 8 0,1-1 0,47-13 0,-6-3 0,-7-3 0,-4-3 0,-9 3 0,0 2 0,0-3 0,-11 1 0,9-7 0,-1 0 0,-1-2 0,0 2 0,-3 1 0,4-7 0,5-4 0,-6-1 0,-3-1 0,-8 8 0,-2-3 0,-2 3 377,1-1-377,-5-3 0,10-10-643,9-14 643,-33 32 0,0-1 0,2-3 0,-1-1 0,-3-1 0,-2-1 0,1 0 0,-1-1 0,-1-3 0,0-1 0,-2-2 0,0 1 0,-3 5 0,0 0 0,17-41 0,-1 7 0,-7 13 0,-1-2 843,-5 5-843,-4 2 295,-1-3-295,-4 1 0,-2 0 0,-1 4 682,0 4-682,-1 4 0,-1 7 0,-3 6 0,0 7 0,-4 8 0,-2 5 0,-1 6 0,-2 3 0,0-2 0,0 0 0,0-6 0,0-6 0,0-5 0,0-7 0,0-12 0,0-6 0,0-8 0,0 0 0,0 7 0,0 6 0,0 9 0,0 7 0,0 9 0,0 3 0,0 5 0,0 1 0,0-4 0,0-5 0,0-2 0,0-4 0,0 3 0,0 2 0,0 4 0,0 5 0,0 2 0,0 3 0,0 4 0,0 5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2027">3363 81 24575,'0'15'0,"0"4"0,0 3 0,-4 4 0,-5 0 0,-4 2 0,-4 3 0,0-5 0,3-3 0,2-1 0,4-5 0,0-1 0,3-1 0,-2-2 0,2 2 0,2 2 0,0-1 0,1 1 0,-3 1 0,0-2 0,2 0 0,0-3 0,0-4 0,0-5 0,1-7 0,0-10 0,2-7 0,0-3 0,-1-9 0,1-4 0,3-3 0,2-2 0,6 7 0,2 4 0,2 1 0,1 2 0,1 2 0,1 0 0,-2 5 0,-3 3 0,-2 1 0,-1 3 0,0 2 0,0 1 0,0 2 0,-1 3 0,-2-2 0,-2 0 0,-2 2 0,-1-1 0,3 1 0,-1 1 0,0-1 0,2 3 0,0 0 0,1 3 0,-1 3 0,-1 5 0,-1 3 0,3 6 0,1 3 0,8 4 0,4 3 0,5-3 0,5 3 0,5 1 0,5 3 0,-1-1 0,-3-3 0,-8-4 0,-4-4 0,-4-3 0,-5-1 0,-2-2 0,-3-1 0,-2-1 0,-2-3 0,-2-1 0,-3-1 0,0-3 0,-2-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 3695 24575,'40'0'0,"10"0"0,9 0 0,14 0 0,16 0-866,-39 0 0,1 0 866,7-1 0,1-1 0,1-1 0,1-1 0,-7 1 0,1-1 178,44-9-178,-5-5 0,-13-1 0,-33 7 0,2 0 0,47-14 0,-6-2 0,-8-3 0,-3-3 0,-9 3 0,0 2 0,-1-3 0,-10 1 0,9-7 0,-2 0 0,0-2 0,0 2 0,-4 1 0,5-6 0,5-5 0,-6-1 0,-4 0 0,-7 7 0,-3-3 0,-1 4 377,0-2-377,-4-3 0,10-9-643,8-14 643,-32 31 0,-1-1 0,2-3 0,0 0 0,-4-2 0,-2-1 0,2 0 0,-2 0 0,-1-4 0,0 0 0,-1-3 0,-1 2 0,-3 4 0,0 0 0,18-39 0,-2 6 0,-6 13 0,-2-2 843,-5 5-843,-4 2 295,0-3-295,-5 0 0,-2 1 0,-1 4 682,0 4-682,-1 3 0,0 7 0,-4 7 0,0 5 0,-4 9 0,-2 5 0,-1 5 0,-2 3 0,0-1 0,0-1 0,0-5 0,0-7 0,0-4 0,0-7 0,0-11 0,0-7 0,0-7 0,0 0 0,0 6 0,0 7 0,0 8 0,0 7 0,0 9 0,0 2 0,0 6 0,0 0 0,0-3 0,0-5 0,0-3 0,0-3 0,0 3 0,0 2 0,0 3 0,0 6 0,0 1 0,0 4 0,0 3 0,0 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2027">3398 79 24575,'0'14'0,"0"5"0,0 2 0,-4 4 0,-5 1 0,-4 1 0,-4 3 0,-1-5 0,4-2 0,2-2 0,4-5 0,0 0 0,3-1 0,-2-3 0,2 3 0,2 1 0,0 0 0,1 0 0,-3 2 0,0-3 0,2 1 0,-1-3 0,1-5 0,0-4 0,1-7 0,0-9 0,2-8 0,0-2 0,-1-9 0,1-4 0,3-3 0,2-2 0,7 7 0,1 4 0,2 1 0,1 2 0,1 1 0,1 1 0,-1 5 0,-4 2 0,-2 1 0,-1 4 0,0 1 0,0 1 0,0 3 0,-1 2 0,-2-2 0,-2 0 0,-2 2 0,-1-1 0,4 2 0,-2 0 0,0-1 0,2 3 0,0 0 0,1 3 0,-1 3 0,-1 5 0,-1 2 0,3 7 0,1 2 0,8 4 0,5 4 0,4-4 0,5 3 0,5 1 0,6 3 0,-2 0 0,-2-4 0,-9-4 0,-4-4 0,-4-2 0,-4-1 0,-3-3 0,-3 0 0,-2-2 0,-2-2 0,-2-1 0,-3-1 0,0-3 0,-2-2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2086,8 +4697,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2 24575,'72'0'0,"-7"0"0,-5-1 0,5 1-546,-13 1 1,0 2 545,1 0 0,2 2 0,-1 2 0,-1 3 0,26 13 299,-1 0-299,-9 6 195,-20-5-195,4 5 0,-8 0 0,-6 0 551,2 5-551,-2-3 0,4 2 0,-2 0 46,1 0-46,-4 3 0,-1 0 0,0 2 0,-2-3 0,-6-2 0,-4-2 0,-3-4 0,-4-2 0,-2 0 0,5 10 0,3 9 0,1 3 0,6 4 0,-6-4 0,3 1 0,1 5 0,0 1 0,3 3 0,-2-5 0,-4-6 0,-6-7 0,-5-9 0,-3-6 0,-1-5 0,-1 0 0,0-1 0,0 2 0,-1 0 0,2 0 0,0 3 0,2 1 0,-1 1 0,-1-1 0,0-4 0,-1-3 0,0-1 0,0-3 0,-2 0 0,-2-1 0,-2-2 0,1 2 0,3 3 0,1 2 0,0 4 0,0 2 0,1 1 0,0 1 0,1 0 0,-1-3 0,1-3 0,-3-1 0,-1-2 0,-1-3 0,-3 0 0,-1-4 0,-1 0 0,2 0 0,-1-1 0,0 1 0,-2-1 0,0 1 0,0-1 0,2 0 0,0 0 0,0 1 0,0 0 0,0-2 0,1 0 0,-1-2 0,2 0 0,-2 0 0,0 1 0,2 0 0,-1 0 0,-1 1 0,0 0 0,-1-1 0,-1-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1491">1930 2052 24575,'47'0'0,"7"0"0,20 0 0,-4 0 0,2 4 0,-11 4 0,-5 7 0,4 3 0,-6-2 0,-5 0 0,-14-3 0,-10-4 0,-7-3 0,-5-3 0,-5-6 0,-3-3 0,-3-5 0,-2-3 0,0 0 0,0-2 0,-2 3 0,-1-1 0,-1 2 0,-1 0 0,2 2 0,0 2 0,1-2 0,-1-2 0,-1-1 0,1 1 0,-1 2 0,-1 0 0,2 0 0,1-2 0,1-1 0,1-2 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,0 2 0,0 1 0,0 5 0,0 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2 24575,'72'0'0,"-6"0"0,-6-1 0,5 1-546,-12 1 1,-1 2 545,1 0 0,3 2 0,-2 2 0,-1 3 0,27 13 299,-2 0-299,-9 5 195,-19-4-195,3 5 0,-8 0 0,-6 0 551,2 5-551,-1-3 0,3 1 0,-2 1 46,1 0-46,-3 3 0,-2 0 0,0 2 0,-2-4 0,-6-1 0,-4-2 0,-2-4 0,-5-2 0,-2 0 0,5 9 0,3 10 0,1 3 0,6 4 0,-6-5 0,4 2 0,0 5 0,0 1 0,3 2 0,-2-4 0,-4-6 0,-6-7 0,-4-9 0,-4-7 0,-1-4 0,-1 0 0,0-1 0,0 2 0,-1 0 0,2 0 0,0 3 0,2 1 0,-1 0 0,-1 0 0,0-4 0,-1-3 0,0-1 0,0-3 0,-2 0 0,-2-1 0,-2-2 0,1 2 0,4 3 0,0 2 0,0 3 0,0 3 0,1 1 0,0 1 0,1 0 0,-1-3 0,1-3 0,-3-1 0,-1-2 0,-1-3 0,-3-1 0,-1-3 0,-1 0 0,2 0 0,-1-1 0,0 1 0,-2-1 0,0 1 0,0-1 0,2 0 0,0 0 0,0 1 0,0 0 0,0-2 0,1 0 0,-1-2 0,2 0 0,-2 0 0,0 1 0,2 0 0,-1 0 0,-1 1 0,0 0 0,-1-1 0,-1-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1491">1940 2042 24575,'48'0'0,"6"0"0,20 0 0,-3 0 0,1 4 0,-11 3 0,-4 8 0,3 3 0,-6-2 0,-5 0 0,-13-3 0,-11-4 0,-7-3 0,-5-3 0,-5-6 0,-3-3 0,-3-5 0,-2-3 0,0 0 0,0-2 0,-2 3 0,-1-1 0,-1 3 0,-1-1 0,2 2 0,0 2 0,1-2 0,-1-2 0,-1-1 0,1 1 0,-1 2 0,-1 0 0,2 0 0,1-2 0,1-1 0,1-2 0,0 0 0,0 0 0,0 1 0,0 0 0,0-1 0,0 2 0,0-1 0,0 2 0,0 1 0,0 5 0,0 2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2198,7 +4809,7 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 3269 24575,'23'0'0,"5"0"0,11 0 0,14 0 0,2 0 0,7 0 0,4 0 0,-3 0 0,0 0 0,-3-3 0,-8 0 0,-5-3 0,-4-3 0,-1 0 0,-3-3 0,-5 1 0,-4 2 0,-4 2 0,3 0 0,4-1 0,4-4 0,1-2 0,4-3 0,-3-1 0,1 2 0,-2-1 0,-2 2 0,-1-3 0,-1-1 0,-1-1 0,-3 0 0,2 0 0,1-2 0,4-3 0,8-7 0,3-6 0,1-1 0,1-3 0,0 2 0,-3 3 0,2 0 0,-7 5 0,-5 4 0,-5 2 0,-5 4 0,-2 1 0,-1 0 0,2-4 0,2-3 0,13-11 0,2-6 0,5-5 0,0-4 0,-3 3 0,3-4 0,-2-1 0,-2 5 0,-8 6 0,-2 1 0,0 1 0,-2-1 0,-1 1 0,3-5 0,3-6 0,4-6 0,10-12 0,-3 3 0,3 1 0,-2-2 0,-3 11 0,1 0 0,-2 1 0,-6 11 0,-9 10 0,-7 9 0,-8 10 0,-2 2 0,-2 1 0,2-1 0,3-5 0,6-8 0,4-4 0,4-6 0,1-1 0,0 1 0,0-1 0,-4 7 0,-2 4 0,-6 6 0,-4 5 0,-2 0 0,-2 2 0,3 0 0,-1-4 0,3-4 0,3-6 0,4-8 0,4-1 0,-2-1 0,-1 0 0,-6 8 0,-4 4 0,-1 7 0,-3 6 0,-3 5 0,-2 1 0,-3 1 0,-2-1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,1-1 0,1 1 0,0 0 0,2 0 0,-1-1 0,-1-1 0,2 3 0,-1 0 0,-1 0 0,3-5 0,-1-5 0,3-2 0,0-3 0,0 3 0,0-3 0,-1 4 0,-1 3 0,0 2 0,-2 2 0,0 5 0,-1 4 0,-2 6 0,0 4 0,0 0 0,0 0 0,0-3 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 3190 24575,'23'0'0,"6"0"0,10 0 0,15 0 0,1 0 0,8 0 0,4 0 0,-4 0 0,1 0 0,-3-3 0,-9 0 0,-4-3 0,-5-2 0,0-1 0,-4-3 0,-5 1 0,-3 3 0,-5 1 0,3 0 0,5-1 0,3-4 0,1-1 0,5-4 0,-4 0 0,2 1 0,-3-1 0,-2 3 0,0-4 0,-2 0 0,0-2 0,-4 1 0,2-1 0,2-1 0,3-4 0,9-6 0,2-6 0,2-1 0,0-3 0,1 2 0,-4 3 0,3 0 0,-8 4 0,-4 5 0,-6 2 0,-5 3 0,-2 2 0,0-1 0,1-3 0,2-4 0,14-10 0,1-5 0,6-6 0,-1-4 0,-2 3 0,2-3 0,-1-2 0,-3 5 0,-7 6 0,-3 1 0,0 1 0,-1-1 0,-2 1 0,3-4 0,4-7 0,3-6 0,11-11 0,-4 3 0,4 0 0,-3-1 0,-2 11 0,0-1 0,-1 1 0,-7 11 0,-8 10 0,-8 9 0,-8 9 0,-2 3 0,-2 0 0,2 0 0,4-6 0,5-7 0,4-4 0,4-6 0,2-1 0,-1 0 0,0 0 0,-3 7 0,-3 4 0,-6 6 0,-4 4 0,-2 0 0,-1 3 0,2-1 0,-1-3 0,3-5 0,3-5 0,5-8 0,3-1 0,-2-1 0,-1 0 0,-5 8 0,-5 3 0,-1 8 0,-3 5 0,-3 5 0,-2 2 0,-3 0 0,-2-1 0,0-1 0,0 1 0,0 2 0,0-2 0,0 1 0,1-1 0,1 1 0,0 1 0,2-1 0,-1-1 0,-1-1 0,2 3 0,-1 1 0,-1-1 0,3-5 0,-1-5 0,4-1 0,-1-4 0,0 4 0,0-4 0,-1 5 0,-1 2 0,0 3 0,-2 1 0,0 5 0,-1 4 0,-2 6 0,0 4 0,0 0 0,0-1 0,0-2 0,0-1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2225,7 +4836,7 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3840 3811 24575,'0'-41'0,"0"9"0,0-29 0,0 10 0,0-6 0,0 3 0,0 15 0,0 6 0,0 10 0,0-7 0,-5-8 0,-8-14 0,-4-7 0,-3-2 0,1-1 0,3 4 0,-1 5 0,1 10 0,1 9 0,0 6 0,1 4 0,2 4 0,4 2 0,0 4 0,0-4 0,-5-4 0,-1-6 0,-7-10 0,-4-9 0,-2-8 0,-6-16 0,4 3 0,-5-5 0,-1 3 0,-1 3 0,-5-9 0,5 6 0,-2 0 0,3 7 0,4 6 0,3 10 0,4 9 0,1 9 0,4 9 0,4 5 0,1 3 0,3 5 0,-1 0 0,0 3 0,-1 0 0,-4-3 0,-5-3 0,-8-3 0,-4-4 0,-11-6 0,-2 0 0,-2-5 0,-9-5 0,4 2 0,-5-4 0,4 3 0,4-1 0,-7-6 0,-3-1 0,-3-3 0,0 2 0,1-1 0,4 4 0,2 0 0,0 1 0,-4-1 0,0 1 0,-8-4 0,4 2 0,4 2 0,5 1 0,6 7 0,-5-3 0,-8 2 0,-5-4 0,-2-1 0,5 4 0,6-2 0,2 2 0,7 1 0,4-1 0,6 3 0,7 1 0,2 2 0,4 4 0,5 3 0,-1 3 0,0 4 0,-3 1 0,-3-1 0,1-2 0,0-1 0,0 0 0,2 3 0,1 3 0,4 0 0,-1-1 0,4-1 0,3 0 0,1 1 0,2 0 0,-1 2 0,0 1 0,0 0 0,-4-3 0,2-3 0,-3-3 0,0 0 0,2-1 0,-3 0 0,3 3 0,1-2 0,-1 2 0,1 0 0,1 2 0,3 3 0,-1-1 0,1 2 0,-1 0 0,0 1 0,2 1 0,0-2 0,0 2 0,0 0 0,0 1 0,1 1 0,0 0 0,-1-1 0,2 1 0,0-1 0,0 0 0,-1 0 0,-2-1 0,-1 2 0,-1-1 0,-1 1 0,1-2 0,0 1 0,0 1 0,3-2 0,1 3 0,-1-3 0,1 0 0,0 1 0,1 0 0,0 1 0,1 0 0,0 0 0,0 0 0,4 1 0,-1 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3880 3717 24575,'0'-40'0,"0"9"0,0-29 0,0 11 0,0-7 0,0 3 0,0 15 0,0 6 0,0 10 0,0-8 0,-5-7 0,-8-13 0,-4-8 0,-4-1 0,2-2 0,3 5 0,-1 4 0,1 10 0,1 9 0,-1 5 0,2 5 0,2 4 0,4 1 0,0 4 0,0-3 0,-5-5 0,-1-5 0,-8-10 0,-3-9 0,-2-8 0,-7-15 0,5 3 0,-5-5 0,-2 2 0,0 4 0,-5-9 0,4 6 0,-1-1 0,3 8 0,3 5 0,4 11 0,4 7 0,0 10 0,5 9 0,4 4 0,1 3 0,3 5 0,-1 1 0,0 2 0,-2 0 0,-3-3 0,-5-3 0,-8-2 0,-5-5 0,-10-5 0,-3-1 0,-1-4 0,-10-5 0,5 1 0,-6-3 0,5 3 0,3-1 0,-7-6 0,-2-1 0,-4-3 0,0 2 0,2-1 0,3 4 0,3 0 0,-1 1 0,-4-1 0,1 1 0,-9-4 0,4 2 0,5 1 0,4 2 0,7 7 0,-6-3 0,-8 2 0,-4-5 0,-3 0 0,5 4 0,7-2 0,1 2 0,7 0 0,5 0 0,6 3 0,6 1 0,3 1 0,4 5 0,4 2 0,0 3 0,0 5 0,-3 0 0,-4-1 0,2-1 0,0-2 0,-1 0 0,3 4 0,1 2 0,4 0 0,-1-1 0,3-1 0,4 1 0,1 0 0,2 0 0,-1 2 0,0 1 0,-1 1 0,-3-4 0,2-3 0,-3-3 0,0 1 0,2-2 0,-4 1 0,4 2 0,1-2 0,-1 3 0,1-1 0,1 2 0,3 3 0,-2 0 0,2 1 0,-1 0 0,0 1 0,2 1 0,0-2 0,0 3 0,0-1 0,0 1 0,0 1 0,1 0 0,-1-1 0,2 1 0,0-1 0,0 0 0,-1 0 0,-2-1 0,-1 3 0,-2-2 0,0 1 0,1-2 0,0 1 0,0 1 0,3-2 0,1 3 0,-1-3 0,1 0 0,-1 2 0,2-1 0,0 1 0,1 0 0,0 0 0,0 0 0,4 1 0,-1 2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2280,8 +4891,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 213 24575,'16'0'0,"8"0"0,16 0 0,4 0 0,12 0 0,3-5 0,3-4 0,7-4 0,-12-3 0,-2 4 0,-5-1 0,-8 4 0,2 0 0,-2 1 0,1 2 0,13-3 0,3 1 0,9-3 0,7-2 0,5-1 0,7 2-803,10 1 803,-45 6 0,1 1 0,0-1 0,2 1 0,4 0 0,1 0 0,0 2 0,0 0 0,2 0 0,0 0 0,0 2 0,-1 0 0,-9 0 0,-3 0 0,41 0 0,-8 0 0,6 0 0,11 0 0,-4 0 0,-6 0 0,0 0-192,-7 0 192,-2 0 0,-2 0 0,-7 0 0,1 0 0,-2 0 0,-11 2 0,-3 2 0,1 5 794,2 3-794,14 1 0,8 1 0,-3 0 0,0 0 0,6 1-471,6-1 471,-39-5 0,2 1 0,1 0 0,-1 0 0,0 1 0,-2 0 0,43 11 0,-5 0 0,-12 0 0,-5 0-181,7 3 181,-5 0 0,0 2 0,-4 0 0,-8-2 0,-5-3 0,2 1 0,4 4 666,0 1-666,1 2 0,7 4 0,-5-5 187,0 1-187,-5-4 0,-7-3 0,2 3 0,5-2 0,-1 0 0,-4-2 0,-3-1 0,-5 0 0,-4-2 0,-1 0 0,11 3 0,-1 1 0,15 3 0,0 0 0,-10-3 0,14 4 0,-6 1 0,9 1 0,9 3 0,-7-4 0,1-1 0,-8-3 0,-7-3 0,-10-4 0,-6-2 0,-4-3 0,-4 0 0,-1 0 0,-10-2 0,-2-1 0,-3-2 0,-4 0 0,2-1 0,-4-1 0,-3 0 0,-1 0 0,0 0 0,0-1 0,-1 3 0,3 1 0,0 1 0,3 1 0,2 1 0,-1-2 0,-2-1 0,1 1 0,3 1 0,5-2 0,1 0 0,3 1 0,-1-3 0,-4 2 0,0 0 0,-6-2 0,-1 1 0,-2 0 0,-1-1 0,0 0 0,0 0 0,2 0 0,4 3 0,4 2 0,4 0 0,2 0 0,0 0 0,-2 0 0,-6-2 0,-4-1 0,-5-3 0,-4-2 0,-4-1 0,-6-2 0,-4 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2262">7836 1577 24575,'0'15'0,"0"1"0,0 0 0,0 8 0,0 8 0,0 17 0,0 10 0,0 5 0,0 5 0,0 0 0,0 8 0,0-3 0,0-2 0,0-12 0,0-14 0,0-9 0,0-10 0,0-8 0,-2-4 0,-1-4 0,1-3 0,-2-1 0,2 2 0,-1 0 0,-1 0 0,2 0 0,-3 3 0,-2 3 0,1 6 0,-2 6 0,0 4 0,-1 6 0,-3 1 0,1 2 0,0-2 0,-1-2 0,-2 6 0,-2 3 0,-3 7 0,1 2 0,-2 0 0,1 1 0,-7 13 0,0 2 0,-1-3 0,0-1 0,4-11 0,-2-2 0,5-7 0,2-9 0,2-7 0,2-5 0,-1-3 0,3-5 0,2-3 0,2-3 0,0-1 0,-1 0 0,-1-1 0,0 1 0,1-1 0,-3 3 0,-3 3 0,-1 1 0,-1 1 0,-1 1 0,1 0 0,-1 2 0,0 1 0,-1 0 0,-2 0 0,0 1 0,-1 2 0,0 0 0,1 1 0,-1 2 0,1-3 0,2-3 0,4-3 0,2-5 0,2-2 0,0 0 0,0-1 0,1-2 0,0-2 0,1-3 0,-1-2 0,0-1 0,2 0 0,-1 0 0,5 0 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 207 24575,'16'0'0,"8"0"0,17 0 0,3 0 0,12 0 0,4-4 0,2-5 0,8-4 0,-13-2 0,-1 3 0,-6-1 0,-8 4 0,3 1 0,-3 0 0,1 2 0,14-3 0,2 1 0,10-2 0,6-3 0,6-1 0,7 3-803,9 0 803,-44 6 0,0 1 0,1-1 0,1 2 0,4-1 0,2 0 0,-1 2 0,1 0 0,1 0 0,1 0 0,-1 2 0,0 0 0,-10 0 0,-3 0 0,42 0 0,-8 0 0,5 0 0,12 0 0,-4 0 0,-6 0 0,-1 0-192,-6 0 192,-2 0 0,-3 0 0,-6 0 0,0 0 0,-1 0 0,-12 2 0,-2 2 0,0 5 794,3 2-794,13 2 0,9 1 0,-4-1 0,1 1 0,6 0-471,5 0 471,-38-5 0,1 1 0,1-1 0,0 1 0,-1 1 0,-1-1 0,42 12 0,-4-1 0,-12 1 0,-6-1-181,8 3 181,-6 1 0,1 1 0,-5 0 0,-7-1 0,-6-4 0,3 2 0,3 3 666,1 1-666,0 2 0,8 4 0,-6-4 187,1 0-187,-6-4 0,-6-2 0,1 2 0,6-2 0,-2 1 0,-3-3 0,-4-1 0,-5 1 0,-3-3 0,-2 1 0,11 2 0,0 2 0,14 2 0,1 0 0,-11-2 0,15 3 0,-7 1 0,10 2 0,9 2 0,-8-4 0,2-1 0,-9-2 0,-6-4 0,-11-3 0,-5-3 0,-5-2 0,-4 0 0,-1-1 0,-9-1 0,-3-1 0,-3-2 0,-4-1 0,2 0 0,-4-1 0,-2 0 0,-2 0 0,0 0 0,0-1 0,-1 2 0,3 2 0,0 1 0,3 1 0,2 0 0,0-1 0,-3-1 0,1 1 0,3 0 0,5-1 0,1 0 0,4 1 0,-2-3 0,-4 1 0,0 1 0,-6-2 0,0 1 0,-3 0 0,-1-1 0,0-1 0,0 1 0,2 0 0,4 3 0,5 2 0,3-1 0,2 1 0,0 0 0,-2-1 0,-5-1 0,-5-1 0,-5-3 0,-4-2 0,-4-1 0,-6-2 0,-4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2262">7896 1535 24575,'0'15'0,"0"1"0,0-1 0,0 9 0,0 7 0,0 16 0,0 11 0,0 4 0,0 5 0,0 1 0,0 7 0,0-3 0,0-2 0,0-12 0,0-13 0,0-9 0,0-10 0,0-7 0,-2-5 0,-1-3 0,1-3 0,-2-1 0,2 1 0,-1 1 0,-1 0 0,2 0 0,-3 2 0,-2 4 0,1 5 0,-2 7 0,0 3 0,-2 6 0,-2 1 0,1 2 0,0-2 0,-1-2 0,-2 6 0,-2 3 0,-3 6 0,1 3 0,-3-1 0,2 2 0,-7 12 0,0 2 0,-1-3 0,-1 0 0,5-12 0,-2-1 0,5-7 0,2-9 0,2-7 0,2-5 0,-2-2 0,4-6 0,2-2 0,2-3 0,0-2 0,-1 1 0,-1-1 0,0 1 0,1-2 0,-3 4 0,-3 3 0,-1 0 0,-2 2 0,0 0 0,1 1 0,-1 1 0,0 2 0,-1-1 0,-2 1 0,-1 0 0,0 2 0,0 1 0,1 0 0,-1 2 0,1-2 0,1-4 0,5-2 0,2-6 0,2-1 0,0 0 0,0-1 0,1-3 0,0-1 0,1-3 0,-1-2 0,0-1 0,2 0 0,-2 0 0,6 0 0,0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2337,7 +4948,7 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7196 4782 24575,'55'0'0,"13"0"0,-8 0 0,4 0-502,1 0 1,4 0 501,20-1 0,3-2-938,-2-1 1,-1-2 937,-15-3 0,-1-3 0,6-1 0,-3-4-127,-20 0 1,-1-2 126,6-1 0,1-2 0,-1-1 0,0-1 0,-2-3 0,-1-2 0,0 0 0,0-3 0,-2-1 0,0-2 0,-2-1 0,-1-1 0,0-1 0,-1-1 0,0-2 0,0-1 0,1-2 0,-2 0 0,-1 1 0,-3 0 0,-2 0 0,-2-2 0,-1 2 0,0-1 0,-3-1 0,0-2 0,4-6 0,0 0 0,-4 3 0,-2 1-234,-4 2 0,-2 1 234,21-31 388,-12 14-388,-5 4 0,1-12 0,-3-7 0,-3-2 0,-2-1 0,-9 20 0,-4 8 1597,-1 7-1597,-4 8 1013,0 3-1013,0 2 552,-4 8-552,-2 4 49,-3 7-49,-1-1 0,-5-4 0,-8-5 0,-16-14 0,-8-5 0,-8-13 0,-5-15 0,3-2 0,-1-4 0,3 5 0,6 12 0,0 6 0,7 10 0,1 8 0,3 5 0,-2 0 0,-2 1 0,-4 0 0,-8-4 0,1 2 0,0-2 0,0 0 0,3 2 0,-1 1 0,2 2 0,2 6 0,2 2 0,0 3 0,3 1 0,0 0 0,-3-1 0,-8-6 0,-11-2 0,-4-3 0,-1 1 0,-5-1 0,-11-8-410,30 14 1,-2-2 409,0 0 0,-1-1 0,1 0 0,0-1 0,-38-23 0,6 4 0,-1 0 0,-2-2 0,5 5 0,-4 2-74,8 8 74,4 7 0,5 2 0,-2 0 0,-5-2 0,-7 0 0,-6-1 0,4 6 0,-16-2-705,4 3 705,41 8 0,-2 1 0,2-1 0,0 0 0,-41-7 0,40 7 0,0 1 0,-42-6 0,2 1 0,6 1 0,23 7 0,-2 2 0,5 3 787,-2 3-787,-3 0 74,1 0-74,3 0 737,3 0-737,-2 0 0,-9 0 0,-6 0 0,0 0 0,-1 0 0,8 0 0,-4 0 0,3 0 0,6 0 0,2 0 0,1 0 0,-3 0 0,6 0 0,4 0 0,8 0 0,7 0 0,5 0 0,7 0 0,7 0 0,3 0 0,4 0 0,3 0 0,0-2 0,1 1 0,0-2 0,-1 1 0,1-1 0,5 0 0,3-1 0,1 0 0,-4 2 0,-3 0 0,-1-1 0,-2 0 0,-1 1 0,-4-2 0,-6 0 0,-4-4 0,-8-2 0,-7-1 0,-6-1 0,-4-1 0,-1-2 0,2 0 0,5-1 0,1 1 0,2 3 0,2 3 0,1 0 0,7 2 0,1 2 0,2-2 0,0 0 0,-4 0 0,3 0 0,-1 1 0,4 0 0,0 0 0,2 1 0,1 0 0,3 0 0,6 0 0,1 3 0,4-1 0,-1 3 0,1 0 0,0 0 0,-1 0 0,-1-1 0,1-2 0,-1 1 0,1-2 0,-1 1 0,0 0 0,1 1 0,-1 0 0,1-1 0,-1 0 0,1 1 0,-2 2 0,0 0 0,1-1 0,-1-2 0,1 1 0,-2 0 0,0-1 0,-3 1 0,-3-3 0,0 0 0,-6-1 0,-4 1 0,0-1 0,-5 1 0,2 1 0,-2-1 0,-5 0 0,-6-1 0,-7 0 0,-3 0 0,-3-1 0,1 0 0,-3 3 0,0 1 0,0-1 0,-5 0 0,0 1 0,-2-3 0,0 2 0,4-2 0,2 1 0,-1 1 0,-5-2 0,-5 1 0,-3 1 0,1 1 0,6 2 0,4 0 0,6 1 0,5 0 0,0 0 0,6-1 0,4 1 0,5 0 0,7 0 0,0 0 0,1 0 0,1 0 0,-3 0 0,0 0 0,-1 0 0,1 0 0,-4 0 0,0 0 0,-4 0 0,-6 0 0,-2 0 0,-2 0 0,6 0 0,0 0 0,4 0 0,-2 0 0,-1 2 0,1 1 0,-2 2 0,1 2 0,-1 2 0,-1 3 0,0-3 0,4 0 0,2-3 0,7 0 0,1-1 0,5-2 0,3-1 0,2-2 0,1 0 0,-1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 2 0,-2 3 0,-1 3 0,2 2 0,-1-1 0,2 0 0,-1 0 0,-3 2 0,0-1 0,0 1 0,-2 0 0,2 2 0,-1 1 0,-1 0 0,4-1 0,1-3 0,4 0 0,6 0 0,1-3 0,2-3 0,1-2 0,-1-2 0,-1 0 0,2 2 0,1 2 0,3 3 0,0-1 0,2 0 0,-2 0 0,-3 1 0,0 2 0,-2-2 0,2-1 0,2-1 0,-1-1 0,0 0 0,-3 0 0,0 0 0,2 1 0,-1 1 0,2 1 0,-2 2 0,1 0 0,0 1 0,1-3 0,2-1 0,-2-1 0,0 1 0,-1 1 0,-1 0 0,1-2 0,2 0 0,4 0 0,2-2 0,3-3 0,1-3 0,-3 0 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7251 4641 24575,'56'0'0,"12"0"0,-7 0 0,3 0-502,2 0 1,3 0 501,21-1 0,3-2-938,-3-1 1,0-2 937,-15-2 0,-2-4 0,7-1 0,-4-3-127,-19-1 1,-2-1 126,7-1 0,0-3 0,0 0 0,-1-1 0,-1-4 0,-2-1 0,0 0 0,1-3 0,-3-1 0,1-2 0,-3-1 0,0-1 0,-1-1 0,-1 0 0,1-3 0,-1-1 0,2-2 0,-3 1 0,-1 0 0,-2 0 0,-3 0 0,-2-1 0,0 1 0,-1-1 0,-3 0 0,1-3 0,3-5 0,0-1 0,-3 4 0,-3 0-234,-4 2 0,-2 2 234,22-31 388,-13 14-388,-5 4 0,2-12 0,-4-7 0,-3-2 0,-2 0 0,-9 19 0,-3 7 1597,-2 7-1597,-4 9 1013,0 2-1013,0 2 552,-4 7-552,-2 5 49,-3 6-49,-1 0 0,-5-5 0,-8-4 0,-16-14 0,-9-5 0,-7-12 0,-5-15 0,2-2 0,0-3 0,3 4 0,5 12 0,1 5 0,7 10 0,0 8 0,4 5 0,-2 0 0,-2 1 0,-5 0 0,-7-4 0,1 2 0,-1-2 0,1 0 0,3 2 0,-1 1 0,1 2 0,3 5 0,2 3 0,-1 3 0,4 0 0,0 1 0,-3-2 0,-9-5 0,-10-2 0,-5-4 0,0 2 0,-5-1 0,-12-8-410,31 14 1,-3-2 409,1-1 0,-2 0 0,2 0 0,0-1 0,-39-23 0,7 4 0,-2 1 0,-2-3 0,6 6 0,-5 1-74,8 8 74,5 6 0,4 3 0,-1 0 0,-6-2 0,-6-1 0,-7 0 0,5 6 0,-17-2-705,4 2 705,42 8 0,-3 2 0,3-2 0,0 0 0,-42-6 0,40 6 0,1 2 0,-43-7 0,3 2 0,5 0 0,23 7 0,-1 3 0,4 2 787,-1 3-787,-3 0 74,0 0-74,4 0 737,2 0-737,-1 0 0,-10 0 0,-5 0 0,-1 0 0,-1 0 0,9 0 0,-5 0 0,4 0 0,5 0 0,3 0 0,0 0 0,-2 0 0,5 0 0,5 0 0,8 0 0,6 0 0,6 0 0,7 0 0,7 0 0,3 0 0,4 0 0,3 0 0,-1-2 0,2 1 0,0-2 0,-1 1 0,1-1 0,5 0 0,3-1 0,1 0 0,-4 2 0,-3 0 0,-1 0 0,-2-1 0,-1 1 0,-4-2 0,-6 0 0,-5-4 0,-7-2 0,-7 0 0,-6-2 0,-5-1 0,0-1 0,1-1 0,6 0 0,1 0 0,1 4 0,3 2 0,1 0 0,7 2 0,0 3 0,3-3 0,0 0 0,-4 0 0,3 0 0,-2 2 0,5-1 0,0 0 0,2 1 0,1 0 0,2 0 0,7 0 0,1 4 0,4-2 0,-1 3 0,1 0 0,0 0 0,-1 0 0,-1-1 0,1-2 0,-1 1 0,1-2 0,-1 1 0,0 0 0,0 1 0,0 0 0,1-1 0,-1 0 0,1 1 0,-2 2 0,0 0 0,1-1 0,-1-1 0,1 0 0,-2 0 0,0-1 0,-4 1 0,-2-3 0,0 0 0,-6-1 0,-4 1 0,0 0 0,-6 0 0,3 1 0,-2-1 0,-5 0 0,-7-1 0,-6 1 0,-4-1 0,-2-1 0,0 0 0,-2 3 0,0 1 0,-1-1 0,-4 1 0,-1 0 0,-1-3 0,-1 2 0,5-2 0,1 1 0,0 1 0,-6-1 0,-4 0 0,-4 1 0,2 1 0,5 2 0,5 0 0,5 1 0,6 0 0,-1 0 0,7-1 0,4 1 0,4 0 0,8 0 0,0 0 0,1 0 0,0 0 0,-2 0 0,0 0 0,-1 0 0,0 0 0,-3 0 0,0 0 0,-4 0 0,-7 0 0,-1 0 0,-2 0 0,5 0 0,1 0 0,4 0 0,-3 0 0,0 2 0,1 1 0,-3 2 0,2 1 0,-1 3 0,-2 3 0,1-3 0,4-1 0,1-2 0,8 0 0,1-1 0,5-2 0,3-1 0,1-2 0,2 0 0,-1 0 0,-1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 2 0,-2 2 0,-2 4 0,3 2 0,-1-1 0,2-1 0,-1 1 0,-3 2 0,-1-1 0,1 0 0,-2 1 0,2 2 0,-1 0 0,-2 1 0,5-2 0,1-2 0,4 0 0,6-1 0,1-2 0,2-3 0,1-2 0,-1-2 0,-2 0 0,3 2 0,1 2 0,3 3 0,0-2 0,2 1 0,-2 0 0,-3 1 0,0 2 0,-2-3 0,2 0 0,2-1 0,-1-1 0,0 0 0,-3 0 0,0 0 0,2 1 0,-1 0 0,2 2 0,-3 2 0,2 0 0,0 0 0,1-2 0,2-1 0,-2-1 0,0 1 0,-1 0 0,-1 1 0,1-2 0,2 0 0,4 0 0,2-2 0,3-3 0,1-3 0,-3 0 0,1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2365,9 +4976,9 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 591 24575,'53'0'0,"-2"0"0,2 0 0,8 0 0,0 0 0,1 0 0,4 0 0,1 0-509,-3 0 0,-1 0 509,-11 0 0,-1 0 0,42 0 0,7 0-572,-43 0 0,2 0 572,2 0 0,1 0 0,5 0 0,1 0 0,1 0 0,1 0 0,3 0 0,0 0 0,3 0 0,1 0-485,1 0 0,0 0 485,2-5 0,-1-2 0,0-1 0,0-2 0,1-4 0,0-3 0,-5 0 0,-1 1 0,0 3 0,0 1 0,1-2 0,1 1 0,3 1 0,3 0-1063,8-1 1,3-1 1062,4-2 0,2 0 0,-33 6 0,1 0 0,0 1 0,32-4 0,0 0 0,-1-1 0,0 0 0,-8 2 0,0 0-531,-5 0 1,0 0 530,-4 1 0,-2 0 0,-4 0 0,-1 1 0,0 0 0,1 2 0,-4-1 0,-1 1 0,-6 1 0,-1 1 0,-2 0 0,0 1 145,-1-2 1,-1 0-146,1-1 0,1 1 0,5 0 0,0 0 0,-4 1 0,-2 0 0,-3 1 0,0 1 0,4 1 0,1 1 0,0 0 0,0 0 0,-3 1 0,0-1 0,-2 0 0,-2 0 0,36-1 985,-5 0-985,0 3 0,-20-2 2154,-8 0-2154,-8-1 1808,-2 0-1808,8 2 746,5-3-746,1 1 334,9-4-334,2 0 0,4 2 0,13 1-662,0 3 662,-39 1 0,1 0 0,4 0 0,1 0 0,2 0 0,1 0 0,-3 0 0,-1 0 0,-2 0 0,0 0 0,-1 1 0,1 1 0,1 1 0,1 0 0,7 2 0,0 1 0,0 1 0,-1 0 0,-6 1 0,-1-1 0,-3 1 0,-1-1 0,42 8 0,-4 0 0,5 3 0,-45-7 0,1 0 0,0 1 0,-1 0 0,41 9 0,-8-2 0,-9-1 0,7 4 0,14 5 0,-43-12 0,2 0 0,3 0 0,0 1 0,1 1 0,1 1 0,2-1 0,1 2-579,2 0 1,0 2 578,1 0 0,0 2 0,0-1 0,0 1 0,-8-1 0,-2 0-210,-4-2 1,0 1 209,38 19 0,-4-3 0,3 1 0,-13-6 0,-1-2 0,-6-2 0,-1-1 0,-2 0 609,-6-1-609,-2-2 1168,-4-2-1168,-1 0 461,0 1-461,3 2 0,1 0 0,-1 1 0,-1 1 0,-8-1 0,-2 0 0,1-2 0,-3-2 0,1 1 0,-5-1 0,-4-4 0,-3-3 0,-2-1 0,6 0 0,5 4 0,15 4 0,13 1 0,6 2 0,-2-4 0,-9-2 0,-6-2 0,-1 1 0,-4 0 0,-7-2 0,-13-1 0,-11-2 0,-5-5 0,-3-2 0,-2-1 0,2 0 0,7 9 0,3 3 0,3 3 0,-3-1 0,-5-6 0,-1 1 0,0-3 0,-1 0 0,-1-1 0,-2-2 0,-2-3 0,-3-2 0,-8-2 0,-5-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1904">12437 1332 24575,'11'-2'0,"11"4"0,8 6 0,8 7 0,8 11 0,-4 2 0,5 3 0,-3 4 0,-7-5 0,-5-3 0,-10-7 0,-4-4 0,-1-2 0,-3-1 0,-1-1 0,-2-1 0,-1-1 0,-3-1 0,1-1 0,-3-1 0,-3-1 0,0 1 0,-2 1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0 0 0,-2-2 0,-2-2 0,-3-3 0,-1-2 0,0 0 0,0 0 0,-1 0 0,-2 0 0,-1 0 0,-1 0 0,-1 0 0,1 0 0,-3 0 0,1 0 0,-1 0 0,-1 0 0,-1 0 0,-3 0 0,3 0 0,0 0 0,0 0 0,2 0 0,-2 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,3 0 0,4 0 0,0 1 0,3 3 0,1 2 0,0 3 0,0 0 0,0 0 0,0 0 0,0 0 0,2 1 0,0 0 0,0-1 0,0 0 0,0 0 0,1 0 0,0-1 0,3-4 0,-1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5662">10596 1028 24575,'-10'2'0,"3"2"0,0 2 0,-2 2 0,0 2 0,-6 0 0,-1 0 0,1 0 0,-2 0 0,1 0 0,1-1 0,4 0 0,2-3 0,0 0 0,0-1 0,-1 1 0,3 0 0,-1 1 0,0-1 0,1 0 0,1 1 0,0-1 0,-4 1 0,0 0 0,-3 0 0,1 3 0,4-1 0,0 2 0,-1-1 0,2 3 0,2 0 0,2 2 0,2-1 0,0 0 0,1-2 0,0-2 0,0 2 0,-1 1 0,1-1 0,0 0 0,0-3 0,0-1 0,2-1 0,1-1 0,3-2 0,3 1 0,0-1 0,0 1 0,0 0 0,1-2 0,-1 1 0,1-1 0,0-1 0,-1 0 0,0-1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,2 0 0,3 0 0,3-3 0,2 0 0,1-2 0,-1 0 0,0 1 0,0-3 0,1 3 0,1-3 0,-1 1 0,3 0 0,-1 0 0,-1 1 0,-1-1 0,-2 3 0,2 0 0,0 3 0,0 0 0,-1 0 0,-2 0 0,0 0 0,0 0 0,3 0 0,2 0 0,1 0 0,-2 0 0,-3 0 0,-2 2 0,-4 0 0,-1 2 0,-4 3 0,-3 0 0,-3 2 0,-2 0 0,0-2 0,0 1 0,0 0 0,0 1 0,0 1 0,0 1 0,0 1 0,0 3 0,0 0 0,0 1 0,0 1 0,0-1 0,0 2 0,-2-4 0,-1-1 0,-1 0 0,-2-2 0,2-1 0,-2 1 0,-1-1 0,1-1 0,0 1 0,-1-1 0,-1 1 0,-1-3 0,1 0 0,2-2 0,-1-3 0,0 0 0,-1-2 0,1 2 0,1 0 0,0 1 0,-1-1 0,-3-2 0,-1 0 0,-1 0 0,-1 0 0,2 0 0,2 0 0,1 0 0,0 0 0,0 0 0,-2 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,2 0 0,0 0 0,0 0 0,0 0 0,-3 0 0,-1 0 0,-1 0 0,-2 0 0,2 0 0,0 0 0,1 0 0,2 0 0,1 0 0,-1-2 0,2-1 0,0-1 0,0-1 0,-2-2 0,-2-1 0,-1 0 0,1 0 0,2 1 0,0 0 0,2-3 0,1 1 0,2-1 0,2-2 0,1 0 0,2-3 0,0 0 0,0 1 0,0-1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 1 0,0 1 0,2 2 0,2-1 0,2 1 0,1-3 0,-1 1 0,-2 1 0,3-2 0,-1 1 0,-1-3 0,2 2 0,-2 1 0,0 2 0,2-1 0,0 0 0,3 1 0,-3 0 0,0 2 0,-3 1 0,0 0 0,0 1 0,-2 0 0,0-1 0,-1-1 0,0 1 0,-1 0 0,0 0 0,-2 2 0,-2 3 0,-2 2 0,-3 2 0,1 0 0,-2 0 0,1 0 0,3 1 0,1 0 0,4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 586 24575,'53'0'0,"-1"0"0,1 0 0,8 0 0,1 0 0,0 0 0,4 0 0,2 0-509,-4 0 0,0 0 509,-12 0 0,-1 0 0,43 0 0,6 0-572,-42 0 0,1 0 572,2 0 0,2 0 0,4 0 0,1 0 0,2 0 0,0 0 0,4 0 0,-1 0 0,4 0 0,0 0-485,2 0 0,-1 0 485,2-5 0,0-2 0,-1-1 0,1-1 0,0-5 0,1-3 0,-6 0 0,0 1 0,-1 3 0,1 1 0,0-2 0,1 1 0,4 2 0,2-1-1063,9-1 1,2-1 1062,5-2 0,2 0 0,-34 6 0,1 0 0,1 1 0,31-4 0,1 1 0,-1-2 0,-1 0 0,-7 2 0,-1 0-531,-4 0 1,-1 0 530,-3 1 0,-3 0 0,-3 0 0,-2 2 0,0-1 0,2 2 0,-5-1 0,0 1 0,-7 1 0,-1 1 0,-1 0 0,-1 1 145,-1-2 1,0 0-146,0-1 0,2 1 0,4 0 0,0 0 0,-3 1 0,-3 0 0,-3 1 0,1 1 0,3 2 0,1 0 0,1 0 0,-1 0 0,-2 1 0,-1-1 0,-2 0 0,-1 0 0,35-1 985,-4 0-985,-1 3 0,-20-2 2154,-7 0-2154,-9-1 1808,-2 0-1808,9 2 746,4-3-746,1 1 334,10-4-334,1 0 0,5 2 0,12 1-662,1 3 662,-40 1 0,1 0 0,5 0 0,0 0 0,2 0 0,2 0 0,-4 0 0,-1 0 0,-1 0 0,-1 0 0,-1 1 0,2 1 0,0 1 0,1 0 0,8 2 0,-1 1 0,0 1 0,0 0 0,-7 1 0,-1-1 0,-2 1 0,-2-2 0,43 9 0,-5 0 0,6 3 0,-46-7 0,1 0 0,1 1 0,-2 0 0,41 9 0,-7-3 0,-10 0 0,8 4 0,13 5 0,-42-12 0,1 0 0,3 0 0,1 0 0,0 2 0,1 1 0,3-1 0,0 2-579,2 0 1,1 2 578,0-1 0,0 3 0,1-1 0,-1 1 0,-7-1 0,-3-1-210,-4-1 1,0 1 209,39 19 0,-5-4 0,4 2 0,-14-6 0,0-2 0,-7-3 0,0 0 0,-3 0 609,-6-1-609,-1-2 1168,-5-3-1168,-1 1 461,1 1-461,2 2 0,1 0 0,0 0 0,-2 2 0,-8-1 0,-2 0 0,2-2 0,-4-3 0,1 2 0,-5-1 0,-3-4 0,-4-3 0,-2-1 0,6 0 0,5 3 0,16 5 0,12 1 0,6 2 0,-1-4 0,-10-2 0,-5-3 0,-2 2 0,-4 0 0,-7-2 0,-12-1 0,-12-2 0,-5-5 0,-3-2 0,-2-1 0,2 0 0,7 9 0,3 2 0,3 4 0,-2-1 0,-6-6 0,-1 1 0,0-3 0,-1 0 0,-1-1 0,-2-2 0,-2-3 0,-3-3 0,-8-1 0,-5-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1904">12510 1321 24575,'11'-2'0,"11"4"0,9 6 0,7 7 0,8 11 0,-4 2 0,6 2 0,-4 5 0,-7-5 0,-5-3 0,-10-7 0,-4-5 0,0-1 0,-4-1 0,-1-1 0,-2-1 0,-1-1 0,-3-1 0,1-1 0,-3-1 0,-3-1 0,0 1 0,-2 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,-2-2 0,-2-2 0,-3-3 0,-1-2 0,0 0 0,0 0 0,-1 0 0,-2 0 0,-1 0 0,-1 0 0,-2 0 0,2 0 0,-3 0 0,1 0 0,-1 0 0,-1 0 0,-1 0 0,-3 0 0,3 0 0,0 0 0,-1 0 0,3 0 0,-2 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,3 0 0,4 0 0,0 1 0,3 3 0,1 2 0,0 3 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0-1 0,3-4 0,-1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5662">10658 1020 24575,'-10'2'0,"3"2"0,0 2 0,-2 2 0,0 2 0,-6-1 0,-1 1 0,1 0 0,-2 0 0,1 0 0,1-1 0,3 0 0,3-3 0,0 0 0,0-1 0,-1 1 0,3 0 0,-1 1 0,0-1 0,1 0 0,1 1 0,0-1 0,-4 0 0,0 1 0,-3 0 0,1 3 0,4-1 0,0 2 0,-1-1 0,2 3 0,2 0 0,2 2 0,2-1 0,0-1 0,1-1 0,0-2 0,0 2 0,-1 1 0,1-1 0,0 0 0,0-3 0,0-1 0,2-1 0,1-1 0,3-2 0,3 1 0,0-1 0,0 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,0-1 0,-1 0 0,0-1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,2 0 0,-2 0 0,1 0 0,2 0 0,3 0 0,3-3 0,2 0 0,1-2 0,-1 0 0,0 2 0,0-4 0,2 3 0,0-3 0,-1 1 0,3 0 0,-1 0 0,-1 1 0,-1-1 0,-1 3 0,1 0 0,0 3 0,0 0 0,-1 0 0,-2 0 0,0 0 0,0 0 0,3 0 0,3 0 0,0 0 0,-2 0 0,-3 0 0,-2 2 0,-4 0 0,-1 2 0,-4 3 0,-3 0 0,-3 2 0,-2 0 0,0-2 0,0 0 0,0 1 0,0 1 0,0 1 0,0 1 0,0 1 0,0 3 0,0 0 0,0 1 0,0 1 0,0-2 0,0 3 0,-2-4 0,-1-1 0,-1 0 0,-2-2 0,2-1 0,-2 1 0,-1-1 0,1-1 0,0 1 0,-1-2 0,-1 2 0,-1-3 0,1 0 0,2-2 0,-1-3 0,0 0 0,-1-2 0,1 2 0,1 0 0,0 1 0,-1-1 0,-4-2 0,0 0 0,-1 0 0,-1 0 0,2 0 0,2 0 0,1 0 0,0 0 0,0 0 0,-2 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-2 0 0,3 0 0,0 0 0,0 0 0,0 0 0,-3 0 0,-1 0 0,-1 0 0,-2 0 0,2 0 0,0 0 0,1 0 0,2 0 0,1 0 0,-1-2 0,2-1 0,0-1 0,-1-1 0,-1-2 0,-2-1 0,-1 0 0,1 0 0,2 2 0,0-1 0,2-3 0,1 1 0,2-1 0,2-2 0,1 0 0,2-3 0,0 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0-1 0,0 1 0,0 0 0,0 1 0,0 1 0,2 2 0,2 0 0,2 0 0,1-3 0,-1 1 0,-2 1 0,3-2 0,-1 1 0,-1-3 0,2 2 0,-2 2 0,0 1 0,2-1 0,0 0 0,3 1 0,-3 0 0,1 2 0,-4 1 0,0 0 0,0 1 0,-2 0 0,0 0 0,-1-2 0,0 1 0,-1 0 0,0 0 0,-2 2 0,-2 3 0,-2 2 0,-3 2 0,0 0 0,-1 0 0,1 0 0,3 1 0,1 0 0,4 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2422,12 +5033,12 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">19709 0 24575,'-20'0'0,"-11"0"0,-33 0 0,-28 0 0,31 0 0,-3 0 0,-9 0 0,-2 0-905,-1 0 1,-1 0 904,5 0 0,2 0 0,4 0 0,1 0 0,-5 0 0,0 0 0,-2 0 0,-1 0 0,-2 0 0,1 0 0,0 0 0,1 0 0,2 0 0,1 0 0,0 0 0,0 0 0,-8 0 0,-2 0-900,-6 0 1,-3 0 899,-3 0 0,-4 0 0,25 0 0,-3 0 0,0 0-787,-1 0 0,0 0 0,0 0 787,1 0 0,0 0 0,1 0 0,2 0 0,1 0 0,1 0-497,-18 0 1,3 0 496,10 0 0,2 0 0,1 0 0,1 0 0,4 0 0,1 0 0,-3 0 0,1 0 0,2 0 0,2 0 0,10 0 0,1 0 0,-4 0 0,0 0 161,-2 0 1,-1 0-162,-2 0 0,0 0 0,-1 0 0,1 0 0,3 0 0,2 0 0,3 0 0,0 0 0,-46 0 0,48 0 0,1 0 0,-40 0 1600,7 0-1600,0 0 0,-1 0 0,-4 0 0,-2 0 0,10 0 0,-1 0 0,0 0 0,-14 3 0,42 0 0,-2 1 0,-2 1 0,0 1 0,0 0 0,2 2 0,-44 6 0,47-6 0,-1-1 0,-1 1 0,0 0 0,1-1 0,1 1 0,-4 0 0,2-1 0,-35 8 0,12-1 0,-3-1 0,22-1 2512,-2 0-2512,3-1 1318,4 0-1318,-7 2 903,-3 0-903,3 1 306,0-1-306,4 0 0,1-1 0,-1 1 0,1 3 0,1 0 0,5-1 0,1 3 0,4-4 0,4 0 0,3-2 0,3 1 0,-1 1 0,0 0 0,3 0 0,0 0 0,0 1 0,3-1 0,1 0 0,3-3 0,4-1 0,3 0 0,4-1 0,3-1 0,2-2 0,-4 0 0,-4 2 0,-3 0 0,-1 1 0,0 2 0,0-1 0,2 0 0,1 0 0,2 1 0,3-4 0,3 0 0,4-1 0,1 1 0,3 1 0,0 1 0,1 0 0,1 0 0,-2-2 0,-1-2 0,-1 1 0,0 0 0,0 1 0,-1 0 0,0-3 0,1 1 0,1-3 0,1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1854">10312 1060 24575,'-21'0'0,"-14"0"0,-27 0 0,-24 0 0,36 0 0,-2 0-368,-2 0 1,0 0 367,-1 0 0,1 0 0,1 0 0,1 0 0,-4 0 0,0 0 0,1 0 0,-1 0 0,3 0 0,1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,-5 0 0,-2 0 0,-8 0 0,-1 0-471,-4 0 0,-1 0 471,-2 0 0,0 0-786,-1 0 1,0 0 785,1 0 0,1 0 0,0 0 0,0 0-425,5 0 1,2 0 424,2 0 0,1 0 0,1-1 0,1 2 0,-1 0 0,1 1 0,5 2 0,1 0 0,4 2 0,0 2-2,1 0 0,0 1 2,1 1 0,-1 0 0,-4 0 0,-2 1 0,-1 0 0,0 1 0,-1-1 0,2 1 0,3-2 0,2 1 0,0 0 0,2 0 0,-42 11 0,5 4 0,-2 0 0,11-2 978,10-3-978,10-2 0,12 0 1582,9-2-1582,5 3 982,1 0-982,-5 8 559,-7 5-559,-2 3 0,-3 4 0,-1 3 0,-1 4 0,-18 12 0,30-25 0,0 0-465,-3 0 0,1 0 465,-2 2 0,1 0 0,2-1 0,1 0 0,-33 29 0,4-5-430,3-1 430,-1-1 0,-6 3 0,0 0 0,5-8 0,16-10 0,6-8 0,12-9 0,11-5 910,2-4-910,6 0 450,-3-1-450,2-2 0,1 2 0,-5 3 0,-2 4 0,-4 5 0,2 0 0,2-1 0,2-4 0,6-3 0,2-2 0,4-4 0,3-1 0,0-2 0,3 0 0,0-1 0,0-1 0,0 0 0,-2 0 0,0 2 0,-3 7 0,-1 3 0,-1 3 0,2 1 0,2-5 0,0 0 0,0-4 0,0-2 0,1-1 0,2-3 0,0-1 0,0 0 0,0 7 0,0 6 0,0 5 0,0 4 0,0-4 0,0-2 0,0-2 0,0-3 0,0-4 0,0-3 0,0-4 0,-2-1 0,0-1 0,-3-1 0,-1-2 0,1-3 0,-1-3 0,2-5 0,2-5 0,0-6 0,1-7 0,1 12 0,0-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4519">4465 3167 24575,'-23'0'0,"-2"0"0,-7 0 0,-2 0 0,1 0 0,-9 0 0,5 0 0,5 0 0,8 0 0,7 0 0,-1 0 0,-1 0 0,-7 0 0,-3 0 0,-6 2 0,-14 8 0,0 6 0,-3 5 0,2 4 0,6 0 0,-2 3 0,0 0 0,6 0 0,5-3 0,-1-1 0,2-2 0,-1 3 0,-1 2 0,0-2 0,-3 5 0,0-4 0,4 1 0,4 1 0,1-3 0,1 2 0,-3 2 0,-1 1 0,-2 4 0,-8 6 0,-1 2 0,-3 1 0,-3 3 0,5-2 0,0-5 0,6-6 0,10-10 0,5-4 0,3-3 0,3 0 0,0-1 0,2-1 0,0 1 0,3 0 0,-3 3 0,-2 5 0,-2 4 0,-2 4 0,-1 3 0,-1 7 0,3-1 0,1-1 0,0-2 0,1-3 0,-1 3 0,1 4 0,0 0 0,0 1 0,-2 1 0,3-6 0,5-2 0,2-3 0,2-2 0,3-3 0,0-5 0,4-7 0,0-3 0,0-2 0,0 1 0,-1-1 0,2 1 0,1-1 0,-1 0 0,1 0 0,-2-3 0,0-2 0,-3-1 0,1-3 0,2-3 0,0-4 0,0-3 0,-1 0 0,0 1 0,1 0 0,2-1 0,0 1 0,0-2 0,-2 3 0,0 0 0,-1 0 0,-1 0 0,2-2 0,-1 0 0,1 0 0,2 1 0,0 0 0,-2-1 0,0-1 0,0 1 0,-2 2 0,1 0 0,-2 2 0,1 1 0,0 0 0,-2 2 0,1-2 0,-1 1 0,-1 0 0,-1 1 0,-1 1 0,0 1 0,0 0 0,1 0 0,0 0 0,-2 0 0,-6 0 0,-7 0 0,-6 0 0,-4 0 0,-5 2 0,-11 5 0,-8 5 0,-6 4 0,-12 8 0,8 0 0,-1 3 0,9 0 0,8-3 0,-4-1 0,3-3 0,0 2 0,4-1 0,4 0 0,4 0 0,1 0 0,3 0 0,0 2 0,-2 0 0,-1 1 0,5-2 0,4-2 0,6-3 0,5-1 0,0-2 0,1 0 0,4-1 0,1-3 0,2 2 0,-1 1 0,-1 2 0,-1 3 0,-1 0 0,1 6 0,-2 3 0,-3 3 0,0 1 0,-4-2 0,0 1 0,0 3 0,-2 8 0,2 3 0,1 2 0,1 0 0,1 0 0,2-2 0,2-1 0,4-7 0,0-4 0,3-5 0,3-5 0,1-1 0,2-4 0,1 1 0,1 3 0,0-3 0,1-2 0,0 0 0,0-1 0,0 4 0,0 1 0,0 1 0,-3 3 0,0 7 0,-3 0 0,0 2 0,-2-1 0,1-5 0,-1 1 0,2-1 0,2-5 0,-1-2 0,2-3 0,0-4 0,1-3 0,1 0 0,1-1 0,0 1 0,-3 4 0,0 2 0,-2 4 0,0-2 0,1-2 0,-1 0 0,2-3 0,-2 0 0,0-5 0,-2-2 0,-1-4 0,-1-1 0,2-3 0,3-8 0,0-6 0,1-8 0,0 9 0,1 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6258">0 6467 24575,'0'12'0,"0"0"0,0 3 0,7 6 0,3 5 0,5 7 0,4 7 0,1-1 0,2-3 0,0-7 0,-4-9 0,-4-1 0,-4-4 0,-3-5 0,-3-7 0,-1-5 0,-1-5 0,-2-2 0,0 1 0,2-1 0,0 0 0,2 3 0,1-1 0,-1 2 0,3 1 0,-1-2 0,2 1 0,2-3 0,8-1 0,13-2 0,13-3 0,23 0 0,13-3-690,18-2 690,-46 9 0,0 1 0,44-9 0,-3 2 0,-14 2 0,-6 0 0,-15 4 0,-19 4 0,-13 2 0,-10 1 0,-5 1 0,-1 0 172,-3 1 1,-3 1-1,-3 0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20875">4997 4371 24575,'9'30'0,"-1"-9"0,7 14 0,-2-13 0,-1-2 0,0-2 0,0-4 0,-4-1 0,0-2 0,-1-4 0,1-1 0,1-1 0,0 4 0,3 3 0,4 9 0,6 6 0,7 5 0,12 11 0,2 3 0,1 1 0,-1-1 0,-10-7 0,-1-5 0,-8-6 0,-7-9 0,-4-6 0,-4-3 0,0-1 0,0 0 0,1-1 0,9 6 0,7 4 0,7 5 0,2 2 0,8 6 0,0 1 0,2 1 0,-1 1 0,-13-9 0,-3-4 0,-6-6 0,-9-6 0,-2-1 0,-3-1 0,0-3 0,1-1 0,1-2 0,0-1 0,-1 0 0,1 0 0,1 0 0,2 0 0,7 0 0,6 0 0,7 0 0,7 0 0,-1 0 0,-3 0 0,-6 0 0,-7 0 0,-6 0 0,-4 0 0,-3 0 0,-4 0 0,-5 2 0,-6 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22841">6100 5170 24575,'15'0'0,"5"5"0,10 8 0,5 8 0,0 5 0,-2-3 0,-6-4 0,-4-4 0,-6-3 0,-3-1 0,-4-3 0,-2-1 0,0 0 0,-3 0 0,-2 0 0,-2 2 0,-3-2 0,-2-3 0,0 0 0,-2-2 0,-1 2 0,0 1 0,0-1 0,0 3 0,1 0 0,-2 2 0,-3 0 0,-1 0 0,1-1 0,0 0 0,3 1 0,-1 0 0,-1 0 0,-2 1 0,0-2 0,-1-1 0,1 0 0,2 1 0,0 1 0,1-2 0,1 0 0,2-2 0,0-2 0,-1 3 0,-1-1 0,-1 1 0,0 1 0,0-2 0,-1 1 0,1 1 0,0-2 0,2 1 0,0-2 0,3 0 0,2-1 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">19814 0 24575,'-20'0'0,"-11"0"0,-34 0 0,-27 0 0,31 0 0,-4 0 0,-8 0 0,-3 0-905,0 0 1,-1 0 904,4 0 0,3 0 0,4 0 0,0 0 0,-4 0 0,-1 0 0,-1 0 0,-1 0 0,-3 0 0,2 0 0,-1 0 0,2 0 0,2 0 0,0 0 0,1 0 0,0 0 0,-9 0 0,-1 0-900,-7 0 1,-2 0 899,-4 0 0,-3 0 0,24 0 0,-2 0 0,0 0-787,-2 0 0,1 0 0,-1 0 787,2 0 0,0 0 0,0 0 0,3 0 0,1 0 0,0 0-497,-17 0 1,2 0 496,11 0 0,1 0 0,2 0 0,1 0 0,3 0 0,2 0 0,-3 0 0,0 0 0,3 0 0,2 0 0,9 0 0,2 0 0,-4 0 0,-1 0 161,-1 0 1,-1 0-162,-3 0 0,1 0 0,-1 0 0,1 0 0,2 0 0,3 0 0,3 0 0,-1 0 0,-45 0 0,48 0 0,0 0 0,-39 0 1600,6 0-1600,1 0 0,-2 0 0,-3 0 0,-2 0 0,9 0 0,0 0 0,-1 0 0,-13 3 0,41 0 0,-1 1 0,-2 1 0,0 0 0,-1 1 0,3 2 0,-45 6 0,48-7 0,-1 0 0,-1 1 0,-1 0 0,2-2 0,1 2 0,-5 0 0,3-1 0,-35 7 0,11 0 0,-2-2 0,22 0 2512,-3 0-2512,4-2 1318,4 1-1318,-8 2 903,-2-1-903,3 2 306,-1-2-306,5 1 0,1-1 0,-2 0 0,2 4 0,1-1 0,5 0 0,0 2 0,5-3 0,4 0 0,3-3 0,3 2 0,-2 0 0,1 1 0,3 0 0,0-1 0,0 2 0,2-2 0,2 1 0,3-4 0,4 0 0,3 0 0,4-1 0,3-2 0,2-1 0,-4 0 0,-4 2 0,-3 0 0,-2 0 0,1 3 0,0-1 0,2-1 0,1 1 0,2 1 0,3-5 0,3 1 0,4-1 0,1 1 0,3 1 0,0 0 0,1 1 0,1 0 0,-2-2 0,-1-3 0,-1 2 0,0 0 0,0 1 0,-1 0 0,0-3 0,1 0 0,1-2 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1854">10367 1028 24575,'-21'0'0,"-14"0"0,-28 0 0,-23 0 0,36 0 0,-3 0-368,-1 0 1,0 0 367,-2 0 0,2 0 0,1 0 0,1 0 0,-5 0 0,1 0 0,1 0 0,-2 0 0,4 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,-6 0 0,-1 0 0,-8 0 0,-2 0-471,-3 0 0,-1 0 471,-3 0 0,1 0-786,-2 0 1,1 0 785,1 0 0,0 0 0,1 0 0,-1 0-425,6 0 1,2 0 424,1 0 0,2 0 0,1-1 0,0 2 0,0 0 0,1 1 0,4 2 0,2 0 0,4 2 0,0 1-2,0 1 0,1 1 2,1 1 0,-2-1 0,-3 1 0,-2 1 0,-1-1 0,-1 2 0,0-1 0,2 0 0,2-1 0,3 1 0,0-1 0,2 1 0,-43 10 0,6 5 0,-3-1 0,12-2 978,9-3-978,11-1 0,12-1 1582,9-1-1582,4 2 982,2 1-982,-5 7 559,-7 5-559,-2 3 0,-4 3 0,0 4 0,-1 4 0,-19 11 0,31-24 0,0 0-465,-3 0 0,1 0 465,-3 2 0,2 0 0,2-1 0,1 0 0,-34 28 0,5-5-430,3-1 430,-2 0 0,-5 2 0,0 0 0,4-8 0,17-9 0,6-8 0,12-9 0,10-4 910,3-5-910,6 1 450,-3-2-450,2-1 0,1 1 0,-5 4 0,-2 3 0,-4 5 0,2 1 0,1-2 0,3-4 0,6-2 0,2-3 0,4-3 0,3-2 0,0-1 0,3 0 0,0-1 0,0-2 0,0 1 0,-2 0 0,0 2 0,-3 6 0,-1 3 0,-1 4 0,2 0 0,2-5 0,0 1 0,0-5 0,0-1 0,1-1 0,2-4 0,0 0 0,0 0 0,0 6 0,0 7 0,0 4 0,0 4 0,0-4 0,0-1 0,0-3 0,0-3 0,0-3 0,0-3 0,0-5 0,-2 0 0,0-1 0,-3-1 0,-1-2 0,1-3 0,-1-3 0,2-5 0,2-5 0,0-5 0,1-7 0,1 11 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4519">4489 3072 24575,'-23'0'0,"-2"0"0,-8 0 0,-1 0 0,1 0 0,-9 0 0,5 0 0,4 0 0,9 0 0,7 0 0,-1 0 0,-1 0 0,-7 0 0,-3 0 0,-6 2 0,-15 8 0,1 5 0,-3 5 0,1 5 0,7-1 0,-2 3 0,0 0 0,6 0 0,4-2 0,0-2 0,2-2 0,-1 4 0,-1 1 0,-1-2 0,-2 5 0,0-4 0,4 2 0,4 0 0,0-3 0,2 2 0,-3 2 0,-1 1 0,-2 4 0,-8 6 0,-2 2 0,-2 1 0,-3 2 0,5-1 0,-1-5 0,7-6 0,10-10 0,5-4 0,3-2 0,3 0 0,0-2 0,1 0 0,1 0 0,3 1 0,-3 2 0,-2 6 0,-2 3 0,-2 4 0,-1 3 0,-1 7 0,3-2 0,0 0 0,1-2 0,1-3 0,-1 3 0,1 4 0,0-1 0,0 2 0,-2 1 0,3-6 0,5-2 0,1-3 0,3-2 0,3-3 0,0-5 0,4-6 0,0-3 0,0-3 0,0 2 0,-1-1 0,2 0 0,1 0 0,-1 0 0,1-1 0,-2-2 0,0-2 0,-3-1 0,1-3 0,2-3 0,0-4 0,0-3 0,-1 1 0,0 0 0,1 0 0,2-1 0,0 2 0,0-3 0,-2 3 0,0 0 0,-1 1 0,-1-1 0,2-2 0,-1 0 0,1 1 0,2 0 0,0 0 0,-2-1 0,0 0 0,0 0 0,-2 2 0,1 0 0,-2 3 0,1 0 0,0 0 0,-2 2 0,1-2 0,-1 1 0,-1 0 0,-1 1 0,-1 1 0,0 1 0,0 0 0,1 0 0,-1 0 0,-1 0 0,-6 0 0,-7 0 0,-6 0 0,-4 0 0,-5 2 0,-12 5 0,-7 5 0,-6 3 0,-13 8 0,9 1 0,-1 2 0,8 0 0,9-3 0,-4 0 0,3-4 0,-1 2 0,5 0 0,4-1 0,4 0 0,0 1 0,4-1 0,0 3 0,-2-1 0,-1 1 0,4-2 0,5-1 0,6-4 0,5 0 0,0-3 0,1 1 0,4-1 0,1-4 0,2 3 0,-1 1 0,-2 1 0,0 4 0,-1-1 0,1 6 0,-2 4 0,-3 2 0,0 1 0,-4-2 0,0 1 0,0 3 0,-3 8 0,3 2 0,1 3 0,1 0 0,1-1 0,2-1 0,2-1 0,4-7 0,0-4 0,3-5 0,3-5 0,1 0 0,2-5 0,1 1 0,1 4 0,0-4 0,1-1 0,0-1 0,0 0 0,0 3 0,0 2 0,0 0 0,-4 3 0,1 7 0,-3 0 0,0 3 0,-2-2 0,1-5 0,-1 1 0,2-1 0,2-5 0,-1-1 0,2-4 0,0-3 0,1-3 0,1-1 0,1 0 0,0 1 0,-3 3 0,0 3 0,-2 3 0,0-1 0,1-3 0,-1 1 0,2-4 0,-2 1 0,0-5 0,-2-2 0,-1-5 0,-1 0 0,2-2 0,3-9 0,0-6 0,1-7 0,0 8 0,1 4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6258">0 6273 24575,'0'12'0,"0"-1"0,0 4 0,7 5 0,3 5 0,5 7 0,4 7 0,1-1 0,2-3 0,1-7 0,-5-9 0,-4 0 0,-4-5 0,-3-4 0,-3-7 0,-1-5 0,-1-5 0,-2-1 0,0 0 0,2-1 0,0 0 0,2 4 0,1-2 0,-1 2 0,3 1 0,-1-2 0,2 1 0,2-2 0,8-2 0,13-2 0,14-2 0,22-1 0,13-2-690,19-3 690,-47 9 0,1 2 0,43-10 0,-2 3 0,-15 1 0,-6 1 0,-14 3 0,-20 4 0,-13 2 0,-10 1 0,-5 1 0,-1 0 172,-3 1 1,-3 1-1,-3 0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20875">5024 4240 24575,'9'29'0,"-1"-9"0,7 14 0,-2-12 0,-1-3 0,0-2 0,0-3 0,-4-1 0,0-3 0,-1-3 0,1-1 0,1-1 0,0 4 0,3 2 0,4 10 0,7 5 0,6 5 0,12 10 0,2 4 0,1 1 0,0-2 0,-11-6 0,-1-5 0,-8-6 0,-7-8 0,-4-7 0,-4-2 0,0-1 0,0-1 0,1 0 0,10 6 0,6 3 0,7 6 0,2 1 0,8 6 0,1 1 0,1 1 0,-1 1 0,-13-9 0,-3-3 0,-6-7 0,-8-5 0,-3-1 0,-3-2 0,0-2 0,1-1 0,1-2 0,0-1 0,-1 0 0,1 0 0,1 0 0,2 0 0,7 0 0,6 0 0,7 0 0,8 0 0,-2 0 0,-3 0 0,-6 0 0,-7 0 0,-6 0 0,-3 0 0,-4 0 0,-4 0 0,-5 2 0,-6 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22841">6132 5015 24575,'16'0'0,"4"5"0,10 7 0,5 9 0,0 4 0,-2-3 0,-5-3 0,-5-5 0,-6-2 0,-3-1 0,-4-4 0,-2 0 0,0 0 0,-3 0 0,-2-1 0,-2 3 0,-3-2 0,-2-3 0,0 0 0,-2-2 0,-1 2 0,0 0 0,0 0 0,0 3 0,1 0 0,-2 2 0,-3-1 0,-1 1 0,1-1 0,-1 0 0,4 0 0,-1 1 0,-1 0 0,-2 0 0,0-1 0,-1-1 0,1 0 0,2 1 0,0 0 0,1-1 0,1 0 0,2-2 0,0-2 0,-1 2 0,-1 0 0,-1 1 0,0 1 0,0-2 0,-1 1 0,0 0 0,1-1 0,2 1 0,0-2 0,3 0 0,2-1 0,0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2454,8 +5065,8 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3815 24575,'0'-35'0,"0"-20"0,0-18 0,0 22 0,0-2-2099,0 0 0,0 0 2099,0-1 0,0 0 0,0-5 0,0 2 684,0-39-684,2 0 0,3 9 0,4 20 818,2 15-818,0 16 0,2 3 0,5-4 2160,7-7-2160,3-7 0,14-13 0,9-13-2685,-22 31 1,0 0 2684,0 2 0,-1 0 0,22-30-229,-3 4 229,-1 8 0,5-3 0,-2 7 0,-4 12 0,1 1 0,-3 2 0,-1 3 5811,8-6-5811,4 0 0,9-4 0,-1-1 0,-4 6 0,4-5 0,-3 5 0,5 0 0,-3-1 0,-6 7 323,-1-1-323,-4 0 0,0 3 0,5-7 0,1 1 0,6-6 0,-3 4 0,-1 0 0,2-5 0,-10 9 0,3-1 0,-4 5 0,-1 4 0,-2 0 0,-5 7 0,-4 4 0,1 0 0,4 0 0,8-2 0,2 1 0,-1-3 0,3 0 0,2-1 0,-2 1 0,-4 3 0,-4 2 0,-3 1 0,2 0 0,-2 1 0,-6 5 0,-4 2 0,0 2 0,-1-2 0,3-3 0,7-3 0,2-2 0,2-2 0,-2 0 0,-5 3 0,0 1 0,-1 2 0,-2 0 0,-8 2 0,-5 5 0,-3-2 0,2-2 0,5-1 0,3-5 0,4 0 0,-2 1 0,-2-2 0,-2 4 0,-7 4 0,-4 3 0,-7 4 0,-2 0 0,0 1 0,-3 1 0,-1 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2674">3004 47 24575,'12'0'0,"5"0"0,8 0 0,8 0 0,3 0 0,-2 0 0,-1 0 0,-5 0 0,-3 0 0,-5 0 0,-4 0 0,-2 0 0,0 0 0,1 0 0,3 2 0,5 0 0,1 3 0,4 2 0,0-1 0,-3 2 0,-1-3 0,-6 0 0,-3 0 0,-4-2 0,-3-1 0,-1-1 0,2 1 0,0 1 0,0 0 0,1 0 0,0 2 0,-1-1 0,1 0 0,-1 1 0,0-2 0,-2 0 0,-1-1 0,0 0 0,-3 0 0,-2-1 0,-6 1 0,-4 2 0,0 3 0,2 3 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,1-1 0,-1 1 0,0-1 0,2 1 0,-2-1 0,2 1 0,0 2 0,0 0 0,1-1 0,-1 0 0,1-3 0,0 0 0,-1 3 0,0 1 0,0 0 0,0 0 0,2-2 0,-2 0 0,2 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1-1 0,-1-1 0,2-2 0,0 2 0,-1 0 0,3-2 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3721 24575,'0'-34'0,"0"-20"0,0-17 0,0 21 0,0-1-2099,0-1 0,0 0 2099,0 0 0,0-1 0,0-5 0,0 3 684,0-39-684,2 0 0,3 10 0,4 18 818,2 16-818,0 14 0,2 4 0,5-4 2160,8-7-2160,2-7 0,14-12 0,9-13-2685,-22 30 1,0 0 2684,1 2 0,-2 0 0,22-29-229,-3 4 229,0 7 0,4-2 0,-2 6 0,-4 13 0,2 0 0,-4 2 0,-1 3 5811,8-6-5811,5 0 0,8-4 0,-1 0 0,-3 5 0,3-5 0,-3 5 0,6 0 0,-4-1 0,-6 7 323,0-1-323,-5 0 0,0 3 0,5-7 0,2 1 0,5-6 0,-3 5 0,0-1 0,1-5 0,-10 9 0,4-1 0,-5 5 0,-1 4 0,-2-1 0,-4 8 0,-5 4 0,1-1 0,4 1 0,9-3 0,1 2 0,-1-3 0,3-1 0,3 0 0,-3 0 0,-4 4 0,-3 2 0,-4 0 0,2 1 0,-2 0 0,-6 5 0,-3 3 0,-1 1 0,-1-2 0,3-2 0,7-4 0,3-2 0,1-1 0,-2 0 0,-5 2 0,1 1 0,-2 3 0,-2-1 0,-8 3 0,-5 4 0,-3-2 0,2-2 0,6 0 0,2-6 0,4 1 0,-2 0 0,-2-1 0,-2 3 0,-6 4 0,-5 4 0,-7 3 0,-2 0 0,0 1 0,-3 1 0,-1 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2674">3020 46 24575,'12'0'0,"6"0"0,7 0 0,8 0 0,3 0 0,-2 0 0,-1 0 0,-4 0 0,-4 0 0,-5 0 0,-4 0 0,-2 0 0,0 0 0,1 0 0,3 2 0,5 0 0,2 3 0,3 1 0,0 0 0,-3 2 0,-1-3 0,-6 0 0,-3 0 0,-4-2 0,-3-1 0,-1-1 0,2 1 0,1 0 0,-1 1 0,1 0 0,0 2 0,-1-1 0,1 0 0,-1 1 0,0-2 0,-2 0 0,-1-1 0,0 0 0,-3 0 0,-2-1 0,-6 1 0,-4 1 0,0 4 0,2 3 0,-1 0 0,0-1 0,1 1 0,-1 1 0,1-1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,2 0 0,0 3 0,0 0 0,1-2 0,-1 1 0,1-3 0,0 0 0,-1 3 0,0 0 0,0 1 0,0 0 0,2-3 0,-2 1 0,2 0 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,-1-1 0,2-3 0,0 3 0,-1 0 0,3-2 0,0-1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2483,7 +5094,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">794 1 24575,'0'18'0,"0"8"0,0 11 0,0 15 0,0 1 0,4 8 0,5 4 0,3-1 0,4 5 0,-3-5 0,0-8 0,-3-11 0,-3-8 0,-4-8 0,-3-5 0,0-6 0,0-4 0,0-1 0,0-3 0,0 3 0,0 6 0,0 4 0,0 6 0,0 4 0,0-1 0,0-1 0,0 0 0,-2-2 0,-1-1 0,-2-4 0,0-6 0,1-4 0,-2-4 0,2-2 0,-2 0 0,1 1 0,0 0 0,-2 1 0,1-1 0,0 1 0,-4 0 0,-1 2 0,-4 6 0,-7 8 0,-2 8 0,-3 5 0,1-2 0,2 0 0,0-3 0,0-2 0,1-2 0,1-4 0,2-3 0,3-4 0,6-3 0,3-3 0,0-3 0,0-2 0,1-1 0,0 0 0,2-1 0,-2 2 0,-2 0 0,-2 0 0,-1 2 0,-2-1 0,0 3 0,-1 3 0,-5 3 0,-2 6 0,-6 1 0,-1 1 0,1-1 0,0-3 0,1-1 0,2-3 0,5-2 0,4-2 0,5-3 0,0-1 0,1-3 0,0-4 0,0-2 0,1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0-2 0,2-1 0,1 0 0,0 2 0,-1 0 0,-2 1 0,2-1 0,5 0 0,4 0 0,4 1 0,4 4 0,1-1 0,0 2 0,0-2 0,-1 1 0,-1-1 0,1-2 0,-1 0 0,0 2 0,-1 1 0,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 3 0,-1 0 0,1 1 0,-3 1 0,0 0 0,0 3 0,-1-2 0,2 0 0,0 1 0,0 4 0,2 6 0,1 4 0,0 3 0,0 2 0,0-3 0,0 2 0,-1-2 0,1 0 0,0 2 0,-2-2 0,-2 2 0,-1-3 0,-1 0 0,0-1 0,0 1 0,0 5 0,0 2 0,1 1 0,-2-4 0,-2 0 0,-1-2 0,1-1 0,1-1 0,0-3 0,-1-3 0,-2-1 0,0-3 0,0-3 0,0-1 0,0-2 0,0 4 0,0 0 0,0 0 0,0 3 0,0-2 0,0 0 0,0 1 0,0-1 0,0-1 0,0 0 0,0-4 0,-2 0 0,0 0 0,-2-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-2 0 0,2 0 0,-2 0 0,1 2 0,-1-1 0,-1 0 0,0 0 0,-1 1 0,-3 0 0,-2 3 0,-1 5 0,-4 5 0,1 2 0,1 0 0,2-3 0,2-4 0,5-3 0,-1-3 0,3-3 0,-1-1 0,2-4 0,1-3 0,2-5 0,2 1 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">794 1 24575,'0'17'0,"0"9"0,0 10 0,0 14 0,0 1 0,4 9 0,5 3 0,3-1 0,4 5 0,-3-5 0,0-8 0,-3-10 0,-3-8 0,-4-8 0,-3-5 0,0-5 0,0-5 0,0 0 0,0-3 0,0 2 0,0 7 0,0 3 0,0 6 0,0 4 0,0-1 0,0-1 0,0 0 0,-2-2 0,-1 0 0,-2-5 0,0-6 0,1-3 0,-2-4 0,2-3 0,-2 1 0,1 1 0,0 0 0,-2 0 0,1 0 0,0 1 0,-4-1 0,-1 3 0,-4 6 0,-7 7 0,-2 8 0,-3 5 0,1-2 0,2-1 0,0-2 0,0-2 0,1-1 0,1-5 0,2-3 0,3-3 0,6-4 0,3-2 0,0-4 0,0-1 0,1-1 0,0 0 0,2-1 0,-2 1 0,-2 1 0,-2 0 0,-1 2 0,-2-2 0,0 4 0,-1 2 0,-5 4 0,-2 5 0,-6 2 0,-1 0 0,1-1 0,0-3 0,1 0 0,2-4 0,5-1 0,4-3 0,5-2 0,0-1 0,1-4 0,0-3 0,0-2 0,1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0-2 0,2 0 0,1-1 0,0 2 0,-1 0 0,-2 1 0,2-1 0,5 0 0,4 0 0,4 1 0,4 4 0,1-1 0,0 2 0,0-2 0,-1 1 0,-1-1 0,1-2 0,-1 0 0,0 2 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 3 0,-1 0 0,1 1 0,-3 0 0,0 1 0,0 3 0,-1-2 0,2-1 0,0 2 0,0 4 0,2 5 0,1 4 0,0 4 0,0 1 0,0-3 0,0 2 0,-1-1 0,1-1 0,0 2 0,-2-2 0,-2 2 0,-1-2 0,-1-1 0,0-1 0,0 2 0,0 4 0,0 2 0,1 1 0,-2-4 0,-2 0 0,-1-2 0,1 0 0,1-2 0,0-3 0,-1-2 0,-2-2 0,0-2 0,0-3 0,0-2 0,0-1 0,0 4 0,0-1 0,0 1 0,0 3 0,0-3 0,0 1 0,0 0 0,0 0 0,0-1 0,0-1 0,0-3 0,-2 0 0,0 0 0,-2-2 0,-1 1 0,1 0 0,-1 0 0,0 0 0,-2-1 0,2 1 0,-2 0 0,1 2 0,-1-2 0,-1 1 0,0 0 0,-1 1 0,-3-1 0,-2 4 0,-1 5 0,-4 4 0,1 2 0,1 0 0,2-2 0,2-5 0,5-2 0,-1-3 0,3-4 0,-1 0 0,2-4 0,1-3 0,2-5 0,2 1 0,0 1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2538,8 +5149,8 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 4469 24575,'19'0'0,"10"0"0,24 0 0,14 0 0,2 0 0,1 0 0,-9 0 0,4 0 0,6 0 0,-2 0 0,-5 0 0,-8 0 0,-7-3 0,2-8 0,-3-11 0,4-10 0,9-15 0,-1-8 0,0-6 0,1-9-942,-1-9 942,-27 34 0,0-1 0,3-5 0,0-1 0,0-2 0,-1 0 0,-3 4 0,-2 2 0,-2 0 0,-3 1-291,22-40 291,-9 5 0,-1-2 0,-8 9 0,-8 10 0,-6 11 0,-4 14 0,-2 10 0,-1 3 0,-3 1 0,-1-12 928,-1-13-928,3-10 0,4-16 0,4-14-263,-5 38 0,0-1 263,1 0 0,0 1 0,12-40-45,-1 13 45,-4 22 0,-2 7 0,-6 15 0,-3 14 0,-4 6 0,-2 5 0,0 0 829,0-10-829,0-10 47,0-9-47,0-5 0,0 7 0,0 2 0,0 1 0,0 4 0,0 4 0,0 7 0,0 6 0,0 3 0,0 2 0,0-8 0,0-9 0,0-13 0,-2-8 0,-2 0 0,-2 4 0,1 5 0,1 7 0,0 6 0,0 8 0,-1 7 0,-1 3 0,2 0 0,-1-2 0,-3-6 0,3-8 0,-3-10 0,-1-16 0,-2-3 0,-1-4 0,-3 4 0,2 10 0,2 5 0,2 6 0,2 7 0,-3 4 0,2 3 0,1 3 0,-1-2 0,1-5 0,-3-10 0,-2-10 0,-5-13 0,-6-13 0,2-2 0,0-2 0,3 10 0,3 14 0,1 6 0,1 11 0,5 6 0,0 4 0,2 6 0,1 4 0,-2 5 0,2 0 0,-2 1 0,3-3 0,0-2 0,-1 1 0,1 1 0,-2-2 0,2 1 0,-1-1 0,1 1 0,1 1 0,-2-2 0,-1-2 0,0-1 0,-1 0 0,2-1 0,0 1 0,-2-3 0,0 0 0,-1 1 0,-1-1 0,0 1 0,1 1 0,1 2 0,1 3 0,1 2 0,-2 3 0,0 0 0,1 7 0,1-3 0,3 4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1928">1161 354 24575,'0'-10'0,"0"0"0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 1 0,2 2 0,0-1 0,2 3 0,0-1 0,-1-2 0,1 2 0,-1-2 0,2 0 0,-1 0 0,0-1 0,1 0 0,0-2 0,1-2 0,1 0 0,0 0 0,1 1 0,-2 2 0,1 1 0,-2 1 0,2 0 0,-2 2 0,1-1 0,2 2 0,0 0 0,1-2 0,0-1 0,1 0 0,-2-1 0,-1 1 0,0 0 0,-1-3 0,0 3 0,-1 0 0,-2 1 0,-1-1 0,-2-1 0,0 3 0,0 4 0,0 5 0,3 6 0,26 10 0,19 4 0,28 2 0,8-3 0,-6-8 0,4-1 0,-5 0 0,-3-2 0,-11 0 0,-12-1 0,-10-1 0,-4 0 0,-8-2 0,-7-2 0,-6-2 0,-8 0 0,-6-1 0,-2-1 0,-3 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 4343 24575,'19'0'0,"10"0"0,25 0 0,14 0 0,1 0 0,2 0 0,-10 0 0,5 0 0,6 0 0,-3 0 0,-4 0 0,-9 0 0,-6-3 0,1-8 0,-2-10 0,3-10 0,10-15 0,-2-7 0,1-6 0,0-9-942,0-9 942,-28 33 0,1-1 0,2-4 0,0-2 0,1-1 0,-2-1 0,-3 5 0,-2 1 0,-1 0 0,-4 2-291,22-40 291,-8 5 0,-2-1 0,-8 8 0,-7 10 0,-7 10 0,-4 14 0,-2 10 0,-1 3 0,-3 1 0,-1-12 928,-1-13-928,3-9 0,4-16 0,4-13-263,-5 36 0,0 0 263,2-1 0,-1 2 0,12-40-45,-1 14 45,-4 20 0,-2 8 0,-6 14 0,-3 13 0,-4 7 0,-2 4 0,0 0 829,0-9-829,0-10 47,0-9-47,0-5 0,0 7 0,0 2 0,0 1 0,0 4 0,0 4 0,0 7 0,0 5 0,0 3 0,0 3 0,0-9 0,0-8 0,0-13 0,-2-8 0,-2 0 0,-2 5 0,1 4 0,1 7 0,0 5 0,0 9 0,-1 6 0,-1 3 0,2 0 0,-1-1 0,-3-7 0,3-7 0,-3-10 0,-1-16 0,-2-2 0,-1-5 0,-4 5 0,3 9 0,2 5 0,2 6 0,2 6 0,-3 5 0,2 2 0,1 4 0,-1-3 0,1-4 0,-3-10 0,-3-10 0,-4-13 0,-6-12 0,2-2 0,0-2 0,3 10 0,2 13 0,2 6 0,1 11 0,5 6 0,0 4 0,2 5 0,1 4 0,-2 5 0,2 1 0,-2 0 0,3-3 0,0-2 0,-1 1 0,1 2 0,-2-3 0,2 1 0,-2-1 0,2 1 0,1 2 0,-2-3 0,-1-2 0,0 0 0,-1-1 0,2-1 0,0 2 0,-2-4 0,0 0 0,-1 2 0,-1-2 0,0 2 0,1 0 0,1 2 0,1 4 0,0 1 0,-1 3 0,0 0 0,1 7 0,1-3 0,3 4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1928">1172 344 24575,'0'-10'0,"0"1"0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,2 3 0,0-2 0,2 3 0,0-1 0,-1-2 0,1 2 0,-1-1 0,2-1 0,-1 0 0,0-1 0,1 0 0,0-1 0,1-3 0,1 0 0,0 1 0,1 0 0,-2 2 0,1 1 0,-2 2 0,3-1 0,-3 2 0,1-1 0,2 2 0,0 0 0,1-1 0,0-2 0,1 0 0,-2-1 0,-1 1 0,0 1 0,-1-4 0,0 3 0,-1 0 0,-2 1 0,-1 0 0,-2-2 0,0 3 0,0 4 0,0 5 0,3 6 0,27 9 0,18 4 0,29 3 0,8-4 0,-7-7 0,5-2 0,-5 1 0,-3-3 0,-12 1 0,-11-1 0,-11-1 0,-4-1 0,-7-1 0,-8-2 0,-6-2 0,-8 0 0,-6-1 0,-2-2 0,-3 1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2567,8 +5178,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'49'0'0,"-9"0"0,32 0 0,-27 0 0,11 0 0,10 0 0,5 9 0,-1 1 0,-10 7 0,-2 7 0,5 0 0,6 8 0,-5 1 0,-2 6 0,-2-2 0,1 4 0,1 3 0,-6-2 0,1 4 0,-7-3 0,-4-7 0,-3-2 0,-3-1 0,-5-3 0,-2 4 0,5 5 0,2 3 0,6 6 0,-1-2 0,-3 0 0,-3 0 0,-3-4 0,-4-2 0,-3 0 0,-3-3 0,-3-2 0,-1-2 0,-2-6 0,-1 2 0,1 2 0,0 2 0,6 8 0,4 5 0,2 2 0,1 4 0,-4-4 0,-3-4 0,-4-7 0,-5-8 0,-3-4 0,-4-6 0,0-2 0,-1-3 0,-1-3 0,0 1 0,1 1 0,1 6 0,1 6 0,1 3 0,2 2 0,0 1 0,2-2 0,-2-1 0,0-1 0,-1-5 0,-3-3 0,-3-6 0,-2-5 0,-3 0 0,-2 0 0,0 2 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 1 0,0 0 0,0-4 0,0-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1690">2045 2038 24575,'21'0'0,"10"0"0,18 0 0,2 0 0,4 0 0,-16 0 0,1 0 0,-3 0 0,-10 0 0,2 0 0,-17 1 0,-5 3 0,-3 2 0,-3 3 0,-1-1 0,0 1 0,0-5 0,0-3 0,0-5 0,0-5 0,0-4 0,0-7 0,0-3 0,0 0 0,0-1 0,0 4 0,0 1 0,0 1 0,0 3 0,0 2 0,0-1 0,0 2 0,0 1 0,0 1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,2 3 0,0 0 0,1 0 0,0 2 0,-3 0 0,1 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'49'0'0,"-8"0"0,31 0 0,-27 0 0,12 0 0,9 0 0,6 9 0,-2 1 0,-10 7 0,-1 7 0,4-1 0,7 9 0,-6 1 0,-2 6 0,-1-3 0,0 5 0,2 3 0,-7-3 0,1 5 0,-6-3 0,-5-7 0,-3-3 0,-2 0 0,-6-3 0,-2 4 0,5 4 0,3 4 0,5 6 0,-1-3 0,-3 1 0,-2 0 0,-4-5 0,-4-1 0,-3 0 0,-3-3 0,-2-3 0,-2-1 0,-2-6 0,-1 2 0,1 1 0,0 3 0,6 8 0,5 5 0,1 1 0,1 5 0,-4-4 0,-3-5 0,-3-6 0,-6-8 0,-3-4 0,-4-7 0,0-1 0,-1-3 0,-1-3 0,0 1 0,1 1 0,1 6 0,1 6 0,1 2 0,2 3 0,1 1 0,1-2 0,-2-1 0,0-2 0,-1-4 0,-3-3 0,-3-6 0,-2-5 0,-3 0 0,-2 0 0,0 2 0,0-1 0,0 1 0,0 0 0,0-2 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0 0 0,0-4 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1690">2058 2023 24575,'21'0'0,"11"0"0,17 0 0,2 0 0,5 0 0,-17 0 0,1 0 0,-3 0 0,-9 0 0,1 0 0,-17 1 0,-5 3 0,-3 2 0,-3 3 0,-1-1 0,0 1 0,0-5 0,0-3 0,0-5 0,0-5 0,0-4 0,0-7 0,0-2 0,0-1 0,0-1 0,0 4 0,0 1 0,0 1 0,0 3 0,0 2 0,0 0 0,0 1 0,0 1 0,0 1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,2 3 0,0 0 0,1 0 0,0 2 0,-3 0 0,1 3 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2889,13 +5500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04636A38-34A8-414B-8019-4143CB6A64BB}">
-  <dimension ref="D2:T31"/>
+  <dimension ref="D2:Y118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="90" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="4:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="4:20" x14ac:dyDescent="0.2">
@@ -3262,10 +5878,10 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -3337,17 +5953,17 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -3358,15 +5974,15 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -3377,15 +5993,15 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -3396,15 +6012,15 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -3415,15 +6031,15 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -3486,6 +6102,2283 @@
       <c r="S31" s="8"/>
       <c r="T31" s="9"/>
     </row>
+    <row r="32" spans="4:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="17"/>
+    </row>
+    <row r="34" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="19"/>
+    </row>
+    <row r="35" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="19"/>
+    </row>
+    <row r="36" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="19"/>
+    </row>
+    <row r="37" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D39" s="22"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="19"/>
+    </row>
+    <row r="40" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D40" s="22"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="19"/>
+    </row>
+    <row r="42" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="19"/>
+    </row>
+    <row r="43" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D43" s="22"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="19"/>
+    </row>
+    <row r="44" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="19"/>
+    </row>
+    <row r="45" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D45" s="22"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="19"/>
+    </row>
+    <row r="46" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="19"/>
+    </row>
+    <row r="47" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="19"/>
+    </row>
+    <row r="48" spans="4:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="D48" s="22"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="19"/>
+    </row>
+    <row r="49" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D49" s="22"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="19"/>
+    </row>
+    <row r="50" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="19"/>
+    </row>
+    <row r="51" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D51" s="22"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="19"/>
+    </row>
+    <row r="52" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D52" s="22"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="19"/>
+    </row>
+    <row r="53" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D53" s="22"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="19"/>
+    </row>
+    <row r="54" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="19"/>
+    </row>
+    <row r="55" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="19"/>
+    </row>
+    <row r="56" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="19"/>
+    </row>
+    <row r="57" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D57" s="22"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="19"/>
+    </row>
+    <row r="58" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="19"/>
+    </row>
+    <row r="59" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D59" s="22"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="19"/>
+    </row>
+    <row r="60" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D60" s="22"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="19"/>
+    </row>
+    <row r="61" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="19"/>
+    </row>
+    <row r="62" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="19"/>
+    </row>
+    <row r="63" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="19"/>
+    </row>
+    <row r="64" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D64" s="22"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="18"/>
+      <c r="X64" s="18"/>
+      <c r="Y64" s="19"/>
+    </row>
+    <row r="65" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D65" s="22"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
+      <c r="Y65" s="19"/>
+    </row>
+    <row r="66" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="19"/>
+    </row>
+    <row r="67" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D67" s="22"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
+      <c r="Y67" s="19"/>
+    </row>
+    <row r="68" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="19"/>
+    </row>
+    <row r="69" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+      <c r="Y69" s="19"/>
+    </row>
+    <row r="70" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D70" s="22"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="18"/>
+      <c r="Y70" s="19"/>
+    </row>
+    <row r="71" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D71" s="22"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="27"/>
+    </row>
+    <row r="72" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D72" s="22"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="27"/>
+    </row>
+    <row r="73" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="27"/>
+    </row>
+    <row r="74" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D74" s="22"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="27"/>
+    </row>
+    <row r="75" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D75" s="22"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="27"/>
+    </row>
+    <row r="76" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D76" s="22"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="27"/>
+    </row>
+    <row r="77" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D77" s="22"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="27"/>
+    </row>
+    <row r="78" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D78" s="22"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="27"/>
+    </row>
+    <row r="79" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D79" s="22"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="27"/>
+    </row>
+    <row r="80" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D80" s="22"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="27"/>
+    </row>
+    <row r="81" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D81" s="22"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O81" s="23"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="27"/>
+    </row>
+    <row r="82" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D82" s="22"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="27"/>
+    </row>
+    <row r="83" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D83" s="22"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O83" s="23"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="23"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="27"/>
+    </row>
+    <row r="84" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D84" s="13"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="14"/>
+    </row>
+    <row r="85" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D85" s="13"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="14"/>
+    </row>
+    <row r="86" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D86" s="13"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O86" s="12"/>
+      <c r="P86" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="14"/>
+    </row>
+    <row r="87" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D87" s="13"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="14"/>
+    </row>
+    <row r="88" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D88" s="13"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="14"/>
+    </row>
+    <row r="89" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D89" s="13"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="14"/>
+    </row>
+    <row r="90" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D90" s="13"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="14"/>
+    </row>
+    <row r="91" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D91" s="13"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="14"/>
+    </row>
+    <row r="92" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D92" s="13"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="14"/>
+    </row>
+    <row r="93" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D93" s="13"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="14"/>
+    </row>
+    <row r="94" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D94" s="13"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M94" s="12"/>
+      <c r="N94" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="14"/>
+    </row>
+    <row r="95" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D95" s="13"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="14"/>
+    </row>
+    <row r="96" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D96" s="13"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="14"/>
+    </row>
+    <row r="97" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D97" s="13"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="14"/>
+    </row>
+    <row r="98" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D98" s="13"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="23"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="14"/>
+    </row>
+    <row r="99" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D99" s="13"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="14"/>
+    </row>
+    <row r="100" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D100" s="13"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="14"/>
+    </row>
+    <row r="101" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D101" s="13"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="23"/>
+      <c r="P101" s="23"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="23"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="14"/>
+    </row>
+    <row r="102" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D102" s="13"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="23"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="14"/>
+    </row>
+    <row r="103" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D103" s="13"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="23"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="14"/>
+    </row>
+    <row r="104" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D104" s="13"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O104" s="23"/>
+      <c r="P104" s="23"/>
+      <c r="Q104" s="23"/>
+      <c r="R104" s="23"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="14"/>
+    </row>
+    <row r="105" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D105" s="13"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M105" s="23"/>
+      <c r="N105" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O105" s="23"/>
+      <c r="P105" s="23"/>
+      <c r="Q105" s="23"/>
+      <c r="R105" s="23"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="14"/>
+    </row>
+    <row r="106" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D106" s="13"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M106" s="12"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="14"/>
+    </row>
+    <row r="107" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D107" s="13"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="14"/>
+    </row>
+    <row r="108" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D108" s="13"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="14"/>
+    </row>
+    <row r="109" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D109" s="13"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="23"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="14"/>
+    </row>
+    <row r="110" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D110" s="13"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="14"/>
+    </row>
+    <row r="111" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D111" s="13"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="14"/>
+    </row>
+    <row r="112" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D112" s="13"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="14"/>
+    </row>
+    <row r="113" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D113" s="13"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="14"/>
+    </row>
+    <row r="114" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D114" s="13"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="14"/>
+    </row>
+    <row r="115" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D115" s="13"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="14"/>
+    </row>
+    <row r="116" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D116" s="13"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="23"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="14"/>
+    </row>
+    <row r="117" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D117" s="13"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="14"/>
+    </row>
+    <row r="118" spans="4:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="28"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="15"/>
+      <c r="R118" s="15"/>
+      <c r="S118" s="29"/>
+      <c r="T118" s="29"/>
+      <c r="U118" s="29"/>
+      <c r="V118" s="29"/>
+      <c r="W118" s="29"/>
+      <c r="X118" s="29"/>
+      <c r="Y118" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H24:P28"/>

--- a/src/main/java/com/awinas/learning/leetcode/medium/SubSets_1.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/medium/SubSets_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/medium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AA2640-7BA5-E441-87CE-266D910AFE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D72143F-AE8F-8A42-9B02-EABCBBADC62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{34A42EEF-BB64-FC4D-BDE3-5DA5A76DAD31}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33540" windowHeight="21580" xr2:uid="{34A42EEF-BB64-FC4D-BDE3-5DA5A76DAD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -468,28 +468,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4026,8 +4023,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>316511</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>75685</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4056,8 +4053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14478000" y="8839200"/>
-          <a:ext cx="406400" cy="406400"/>
+          <a:off x="14572544" y="8603544"/>
+          <a:ext cx="475967" cy="399345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4069,15 +4066,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>325967</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>697089</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>90311</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4106,8 +4103,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11696700" y="9537700"/>
-          <a:ext cx="406400" cy="406400"/>
+          <a:off x="11727745" y="9496778"/>
+          <a:ext cx="520699" cy="409222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4119,13 +4116,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>194212</xdr:colOff>
+      <xdr:colOff>292989</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>602175</xdr:colOff>
+      <xdr:colOff>700952</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -4156,8 +4153,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12348112" y="10617200"/>
-          <a:ext cx="407963" cy="292100"/>
+          <a:off x="12527322" y="10353322"/>
+          <a:ext cx="407963" cy="280811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4220,14 +4217,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>194235</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>613062</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>157069</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4256,8 +4253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10697135" y="12293600"/>
-          <a:ext cx="448236" cy="317500"/>
+          <a:off x="10763457" y="11726333"/>
+          <a:ext cx="418827" cy="352778"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4276,8 +4273,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>648728</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>164704</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4306,8 +4303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12319000" y="12750800"/>
-          <a:ext cx="431800" cy="431800"/>
+          <a:off x="12399433" y="12424833"/>
+          <a:ext cx="483628" cy="359834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4553,9 +4550,9 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1526 24575,'15'0'0,"-1"0"0,0 0 0,-2 0 0,5 0 0,1 0 0,4 0 0,-1 0 0,-3 0 0,-3 0 0,-2 0 0,-3 0 0,-2 1 0,0 1 0,-1 2 0,-2 2 0,-2 1 0,-2 1 0,-1 2 0,0-1 0,0 0 0,0 1 0,0 2 0,0 0 0,0 1 0,0-2 0,0-1 0,0-1 0,0 2 0,0 0 0,0-1 0,-2 2 0,0 0 0,-3 1 0,1-1 0,-1-2 0,0 0 0,2 0 0,-2-1 0,3 0 0,-1-1 0,0 0 0,1 0 0,-2 0 0,-1 1 0,2 0 0,-1-1 0,1-1 0,0-4 0,1-4 0,3-1 0,2-5 0,1 1 0,2 0 0,0-3 0,2 3 0,0 0 0,1-1 0,1-1 0,-1 0 0,1-1 0,-1-1 0,1 3 0,2 0 0,3-1 0,5 2 0,4-1 0,0 1 0,-3 4 0,-3-2 0,0 1 0,1 1 0,-1-2 0,-2 1 0,-3 0 0,-2 1 0,-2 1 0,-3 1 0,-5 0 0,-4 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2709">3663 1 24575,'9'0'0,"2"0"0,-3 0 0,2 1 0,-1 4 0,-2 1 0,-2 3 0,-1 0 0,-1 1 0,0-1 0,-1-1 0,-2 0 0,0-1 0,0 1 0,0 1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 0 0,-2 0 0,-2 0 0,-1 2 0,-2-3 0,3 0 0,-1-1 0,0 1 0,3 1 0,-2-1 0,0-1 0,0 0 0,-3-2 0,2 2 0,1-2 0,1-1 0,9-7 0,0-4 0,10-8 0,-3 2 0,2 2 0,2 6 0,1 2 0,5 3 0,-1 1 0,-1-1 0,0 1 0,-4 0 0,-1 0 0,-4 0 0,-2 0 0,-1 0 0,-2 1 0,-2 3 0,-3 2 0,-2 2 0,0 1 0,0 2 0,0 2 0,0-1 0,0 3 0,0-2 0,0-2 0,0 1 0,-2-3 0,-2 1 0,-1 0 0,-1 1 0,-1 2 0,0 0 0,-5 0 0,0-1 0,-1-1 0,1-1 0,2-2 0,0 4 0,0 1 0,2-1 0,1 0 0,2-4 0,0 0 0,-1 0 0,2 0 0,-1-1 0,0 1 0,0-3 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 0 0,-2-1 0,3-2 0,0-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4586">3529 107 24575,'10'0'0,"1"0"0,-2 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-2-2 0,0 0 0,0-1 0,0-1 0,3 2 0,-3-3 0,-1 0 0,0 3 0,-3 0 0,-3 2 0,-4 0 0,0 0 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1487 24575,'15'0'0,"-1"0"0,0 0 0,-2 0 0,5 0 0,1 0 0,4 0 0,-1 0 0,-3 0 0,-3 0 0,-2 0 0,-3 0 0,-2 1 0,0 1 0,-1 2 0,-2 2 0,-2 1 0,-2 1 0,-1 1 0,0 0 0,0 0 0,0 1 0,0 1 0,0 1 0,0 1 0,0-3 0,0 0 0,0-1 0,0 2 0,0-1 0,0 0 0,-2 2 0,0 0 0,-3 0 0,1 0 0,-1-2 0,0-1 0,2 1 0,-2-1 0,3 0 0,-1-1 0,0-1 0,1 1 0,-2 0 0,-1 1 0,2-1 0,-1 0 0,1-1 0,0-4 0,1-4 0,3-1 0,2-5 0,1 1 0,2 1 0,0-4 0,2 3 0,0 0 0,1-1 0,1-1 0,-1 1 0,1-2 0,-1-1 0,1 3 0,2 1 0,3-2 0,5 2 0,4-1 0,1 1 0,-4 4 0,-3-2 0,0 1 0,1 1 0,-1-1 0,-2 0 0,-3 0 0,-2 1 0,-2 1 0,-3 1 0,-5 0 0,-4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2709">3669 1 24575,'9'0'0,"2"0"0,-3 0 0,2 1 0,-1 4 0,-2 1 0,-2 2 0,-1 1 0,-1 1 0,0-1 0,-1-1 0,-2-1 0,0 0 0,0 1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0-1 0,0 0 0,0 0 0,-2 0 0,-2 0 0,-1 1 0,-2-2 0,3 0 0,-1-1 0,0 1 0,3 0 0,-2 0 0,0-1 0,0 0 0,-3-2 0,2 2 0,1-2 0,1-1 0,9-7 0,0-4 0,10-8 0,-3 3 0,2 1 0,2 6 0,1 2 0,5 3 0,-1 1 0,-1-1 0,0 1 0,-4 0 0,-1 0 0,-4 0 0,-2 0 0,-1 0 0,-2 1 0,-2 3 0,-3 2 0,-2 2 0,0 0 0,0 3 0,0 2 0,0-1 0,0 2 0,0-1 0,0-2 0,0 0 0,-2-2 0,-2 1 0,-1 0 0,-1 0 0,-1 3 0,0 0 0,-5-1 0,0 0 0,-1-1 0,1-2 0,2-1 0,0 4 0,0 1 0,2-2 0,1 1 0,2-4 0,0 0 0,-1-1 0,2 1 0,-1-1 0,0 1 0,0-3 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-2-1 0,3-2 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4586">3534 104 24575,'10'0'0,"1"0"0,-2 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-2-2 0,0 0 0,0-1 0,0 0 0,3 1 0,-3-3 0,-1 0 0,0 3 0,-3 0 0,-3 2 0,-4 0 0,0 0 0,1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4697,8 +4694,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2 24575,'72'0'0,"-6"0"0,-6-1 0,5 1-546,-12 1 1,-1 2 545,1 0 0,3 2 0,-2 2 0,-1 3 0,27 13 299,-2 0-299,-9 5 195,-19-4-195,3 5 0,-8 0 0,-6 0 551,2 5-551,-1-3 0,3 1 0,-2 1 46,1 0-46,-3 3 0,-2 0 0,0 2 0,-2-4 0,-6-1 0,-4-2 0,-2-4 0,-5-2 0,-2 0 0,5 9 0,3 10 0,1 3 0,6 4 0,-6-5 0,4 2 0,0 5 0,0 1 0,3 2 0,-2-4 0,-4-6 0,-6-7 0,-4-9 0,-4-7 0,-1-4 0,-1 0 0,0-1 0,0 2 0,-1 0 0,2 0 0,0 3 0,2 1 0,-1 0 0,-1 0 0,0-4 0,-1-3 0,0-1 0,0-3 0,-2 0 0,-2-1 0,-2-2 0,1 2 0,4 3 0,0 2 0,0 3 0,0 3 0,1 1 0,0 1 0,1 0 0,-1-3 0,1-3 0,-3-1 0,-1-2 0,-1-3 0,-3-1 0,-1-3 0,-1 0 0,2 0 0,-1-1 0,0 1 0,-2-1 0,0 1 0,0-1 0,2 0 0,0 0 0,0 1 0,0 0 0,0-2 0,1 0 0,-1-2 0,2 0 0,-2 0 0,0 1 0,2 0 0,-1 0 0,-1 1 0,0 0 0,-1-1 0,-1-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1491">1940 2042 24575,'48'0'0,"6"0"0,20 0 0,-3 0 0,1 4 0,-11 3 0,-4 8 0,3 3 0,-6-2 0,-5 0 0,-13-3 0,-11-4 0,-7-3 0,-5-3 0,-5-6 0,-3-3 0,-3-5 0,-2-3 0,0 0 0,0-2 0,-2 3 0,-1-1 0,-1 3 0,-1-1 0,2 2 0,0 2 0,1-2 0,-1-2 0,-1-1 0,1 1 0,-1 2 0,-1 0 0,2 0 0,1-2 0,1-1 0,1-2 0,0 0 0,0 0 0,0 1 0,0 0 0,0-1 0,0 2 0,0-1 0,0 2 0,0 1 0,0 5 0,0 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2 24575,'72'0'0,"-6"0"0,-6-1 0,5 1-546,-11 1 1,-2 2 545,1 0 0,3 2 0,-2 2 0,-1 3 0,27 12 299,-2 1-299,-8 4 195,-20-3-195,3 4 0,-8 1 0,-6-1 551,2 6-551,-1-4 0,3 2 0,-2 0 46,1 1-46,-3 2 0,-2 0 0,0 3 0,-1-5 0,-7 0 0,-4-3 0,-2-3 0,-5-3 0,-2 1 0,5 8 0,3 11 0,1 2 0,6 4 0,-6-5 0,4 2 0,0 5 0,0 2 0,3 1 0,-2-4 0,-4-6 0,-6-7 0,-4-8 0,-4-8 0,-1-3 0,-1 0 0,0-1 0,1 1 0,-2 1 0,2 0 0,0 2 0,2 2 0,-1-1 0,-1 1 0,0-4 0,-1-4 0,0 0 0,0-3 0,-2 0 0,-2-2 0,-2-1 0,1 2 0,4 3 0,0 2 0,0 2 0,0 4 0,1 0 0,0 2 0,1 0 0,-1-4 0,1-2 0,-3-1 0,-1-3 0,-1-2 0,-3-1 0,-1-3 0,-1 0 0,2-1 0,-1 0 0,0 1 0,-2-1 0,0 1 0,0-1 0,2 0 0,0-1 0,0 2 0,0 0 0,0-2 0,1 0 0,-1-2 0,2 0 0,-2 0 0,0 1 0,2-1 0,-1 1 0,-1 1 0,0 0 0,-1-1 0,-1-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1491">1944 2008 24575,'48'0'0,"6"0"0,20 0 0,-3 0 0,1 4 0,-11 3 0,-4 7 0,4 4 0,-7-2 0,-5 0 0,-13-4 0,-11-3 0,-7-3 0,-5-3 0,-5-6 0,-3-3 0,-3-5 0,-2-2 0,0-1 0,0-2 0,-2 3 0,-1 0 0,-1 2 0,-1-1 0,2 2 0,0 2 0,1-2 0,-1-1 0,-1-2 0,1 1 0,-1 2 0,-1 0 0,2 1 0,1-3 0,1-1 0,1-2 0,0 0 0,0 1 0,0 0 0,0 0 0,0-1 0,0 3 0,0-2 0,0 2 0,0 1 0,0 5 0,0 2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4976,9 +4973,9 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 586 24575,'53'0'0,"-1"0"0,1 0 0,8 0 0,1 0 0,0 0 0,4 0 0,2 0-509,-4 0 0,0 0 509,-12 0 0,-1 0 0,43 0 0,6 0-572,-42 0 0,1 0 572,2 0 0,2 0 0,4 0 0,1 0 0,2 0 0,0 0 0,4 0 0,-1 0 0,4 0 0,0 0-485,2 0 0,-1 0 485,2-5 0,0-2 0,-1-1 0,1-1 0,0-5 0,1-3 0,-6 0 0,0 1 0,-1 3 0,1 1 0,0-2 0,1 1 0,4 2 0,2-1-1063,9-1 1,2-1 1062,5-2 0,2 0 0,-34 6 0,1 0 0,1 1 0,31-4 0,1 1 0,-1-2 0,-1 0 0,-7 2 0,-1 0-531,-4 0 1,-1 0 530,-3 1 0,-3 0 0,-3 0 0,-2 2 0,0-1 0,2 2 0,-5-1 0,0 1 0,-7 1 0,-1 1 0,-1 0 0,-1 1 145,-1-2 1,0 0-146,0-1 0,2 1 0,4 0 0,0 0 0,-3 1 0,-3 0 0,-3 1 0,1 1 0,3 2 0,1 0 0,1 0 0,-1 0 0,-2 1 0,-1-1 0,-2 0 0,-1 0 0,35-1 985,-4 0-985,-1 3 0,-20-2 2154,-7 0-2154,-9-1 1808,-2 0-1808,9 2 746,4-3-746,1 1 334,10-4-334,1 0 0,5 2 0,12 1-662,1 3 662,-40 1 0,1 0 0,5 0 0,0 0 0,2 0 0,2 0 0,-4 0 0,-1 0 0,-1 0 0,-1 0 0,-1 1 0,2 1 0,0 1 0,1 0 0,8 2 0,-1 1 0,0 1 0,0 0 0,-7 1 0,-1-1 0,-2 1 0,-2-2 0,43 9 0,-5 0 0,6 3 0,-46-7 0,1 0 0,1 1 0,-2 0 0,41 9 0,-7-3 0,-10 0 0,8 4 0,13 5 0,-42-12 0,1 0 0,3 0 0,1 0 0,0 2 0,1 1 0,3-1 0,0 2-579,2 0 1,1 2 578,0-1 0,0 3 0,1-1 0,-1 1 0,-7-1 0,-3-1-210,-4-1 1,0 1 209,39 19 0,-5-4 0,4 2 0,-14-6 0,0-2 0,-7-3 0,0 0 0,-3 0 609,-6-1-609,-1-2 1168,-5-3-1168,-1 1 461,1 1-461,2 2 0,1 0 0,0 0 0,-2 2 0,-8-1 0,-2 0 0,2-2 0,-4-3 0,1 2 0,-5-1 0,-3-4 0,-4-3 0,-2-1 0,6 0 0,5 3 0,16 5 0,12 1 0,6 2 0,-1-4 0,-10-2 0,-5-3 0,-2 2 0,-4 0 0,-7-2 0,-12-1 0,-12-2 0,-5-5 0,-3-2 0,-2-1 0,2 0 0,7 9 0,3 2 0,3 4 0,-2-1 0,-6-6 0,-1 1 0,0-3 0,-1 0 0,-1-1 0,-2-2 0,-2-3 0,-3-3 0,-8-1 0,-5-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1904">12510 1321 24575,'11'-2'0,"11"4"0,9 6 0,7 7 0,8 11 0,-4 2 0,6 2 0,-4 5 0,-7-5 0,-5-3 0,-10-7 0,-4-5 0,0-1 0,-4-1 0,-1-1 0,-2-1 0,-1-1 0,-3-1 0,1-1 0,-3-1 0,-3-1 0,0 1 0,-2 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,-2-2 0,-2-2 0,-3-3 0,-1-2 0,0 0 0,0 0 0,-1 0 0,-2 0 0,-1 0 0,-1 0 0,-2 0 0,2 0 0,-3 0 0,1 0 0,-1 0 0,-1 0 0,-1 0 0,-3 0 0,3 0 0,0 0 0,-1 0 0,3 0 0,-2 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,3 0 0,4 0 0,0 1 0,3 3 0,1 2 0,0 3 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0-1 0,3-4 0,-1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5662">10658 1020 24575,'-10'2'0,"3"2"0,0 2 0,-2 2 0,0 2 0,-6-1 0,-1 1 0,1 0 0,-2 0 0,1 0 0,1-1 0,3 0 0,3-3 0,0 0 0,0-1 0,-1 1 0,3 0 0,-1 1 0,0-1 0,1 0 0,1 1 0,0-1 0,-4 0 0,0 1 0,-3 0 0,1 3 0,4-1 0,0 2 0,-1-1 0,2 3 0,2 0 0,2 2 0,2-1 0,0-1 0,1-1 0,0-2 0,0 2 0,-1 1 0,1-1 0,0 0 0,0-3 0,0-1 0,2-1 0,1-1 0,3-2 0,3 1 0,0-1 0,0 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,0-1 0,-1 0 0,0-1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,2 0 0,-2 0 0,1 0 0,2 0 0,3 0 0,3-3 0,2 0 0,1-2 0,-1 0 0,0 2 0,0-4 0,2 3 0,0-3 0,-1 1 0,3 0 0,-1 0 0,-1 1 0,-1-1 0,-1 3 0,1 0 0,0 3 0,0 0 0,-1 0 0,-2 0 0,0 0 0,0 0 0,3 0 0,3 0 0,0 0 0,-2 0 0,-3 0 0,-2 2 0,-4 0 0,-1 2 0,-4 3 0,-3 0 0,-3 2 0,-2 0 0,0-2 0,0 0 0,0 1 0,0 1 0,0 1 0,0 1 0,0 1 0,0 3 0,0 0 0,0 1 0,0 1 0,0-2 0,0 3 0,-2-4 0,-1-1 0,-1 0 0,-2-2 0,2-1 0,-2 1 0,-1-1 0,1-1 0,0 1 0,-1-2 0,-1 2 0,-1-3 0,1 0 0,2-2 0,-1-3 0,0 0 0,-1-2 0,1 2 0,1 0 0,0 1 0,-1-1 0,-4-2 0,0 0 0,-1 0 0,-1 0 0,2 0 0,2 0 0,1 0 0,0 0 0,0 0 0,-2 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-2 0 0,3 0 0,0 0 0,0 0 0,0 0 0,-3 0 0,-1 0 0,-1 0 0,-2 0 0,2 0 0,0 0 0,1 0 0,2 0 0,1 0 0,-1-2 0,2-1 0,0-1 0,-1-1 0,-1-2 0,-2-1 0,-1 0 0,1 0 0,2 2 0,0-1 0,2-3 0,1 1 0,2-1 0,2-2 0,1 0 0,2-3 0,0 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0-1 0,0 1 0,0 0 0,0 1 0,0 1 0,2 2 0,2 0 0,2 0 0,1-3 0,-1 1 0,-2 1 0,3-2 0,-1 1 0,-1-3 0,2 2 0,-2 2 0,0 1 0,2-1 0,0 0 0,3 1 0,-3 0 0,1 2 0,-4 1 0,0 0 0,0 1 0,-2 0 0,0 0 0,-1-2 0,0 1 0,-1 0 0,0 0 0,-2 2 0,-2 3 0,-2 2 0,-3 2 0,0 0 0,-1 0 0,1 0 0,3 1 0,1 0 0,4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 571 24575,'53'0'0,"-1"0"0,1 0 0,8 0 0,1 0 0,1 0 0,3 0 0,2 0-509,-4 0 0,0 0 509,-12 0 0,-1 0 0,43 0 0,7 0-572,-43 0 0,1 0 572,2 0 0,2 0 0,4 0 0,1 0 0,2 0 0,1 0 0,3 0 0,-1 0 0,4 0 0,0 0-485,2 0 0,-1 0 485,2-5 0,1-1 0,-2-2 0,1-1 0,0-5 0,1-2 0,-6-1 0,0 2 0,0 2 0,0 1 0,0-1 0,1 0 0,4 2 0,2-1-1063,9 0 1,3-2 1062,4-1 0,2-1 0,-34 6 0,1 0 0,1 2 0,31-5 0,2 1 0,-2-1 0,-1-1 0,-7 2 0,-1 1-531,-4-1 1,0 0 530,-4 2 0,-3-1 0,-3 0 0,-2 2 0,0 0 0,2 1 0,-4-1 0,-1 1 0,-7 1 0,-1 2 0,-1-1 0,-1 1 145,-1-2 1,0 0-146,0-1 0,3 2 0,3-1 0,0 0 0,-3 1 0,-3 0 0,-3 1 0,1 1 0,3 2 0,1 1 0,2-1 0,-2 0 0,-2 1 0,-1-1 0,-2 0 0,-1 0 0,35-1 985,-4 0-985,0 3 0,-21-2 2154,-7 0-2154,-9-1 1808,-2 0-1808,9 2 746,4-3-746,1 1 334,10-3-334,1-1 0,6 2 0,11 1-662,1 3 662,-40 1 0,1 0 0,5 0 0,0 0 0,2 0 0,3 0 0,-5 0 0,-1 0 0,-1 0 0,-1 0 0,-1 1 0,2 1 0,0 1 0,1 0 0,8 2 0,0 0 0,-1 2 0,0 0 0,-7 1 0,-1-1 0,-2 1 0,-2-3 0,43 10 0,-5 0 0,7 2 0,-47-6 0,1 0 0,1 0 0,-2 1 0,41 8 0,-7-2 0,-10 0 0,9 3 0,12 5 0,-42-11 0,1 0 0,3-1 0,1 1 0,0 1 0,1 2 0,3-1 0,1 1-579,1 1 1,1 1 578,0 0 0,0 2 0,1-1 0,-1 2 0,-7-2 0,-3 0-210,-3-2 1,-1 2 209,39 18 0,-5-4 0,4 2 0,-14-6 0,0-2 0,-7-2 0,1-1 0,-4 0 609,-6 0-609,-1-3 1168,-5-3-1168,-1 2 461,1 0-461,2 3 0,1-1 0,0 0 0,-1 3 0,-9-2 0,-2 0 0,2-1 0,-4-4 0,1 3 0,-5-2 0,-3-3 0,-4-4 0,-2 0 0,6 0 0,5 2 0,16 6 0,12 0 0,7 2 0,-2-3 0,-10-3 0,-5-2 0,-2 1 0,-4 1 0,-7-2 0,-12-2 0,-12-1 0,-5-5 0,-3-2 0,-2-2 0,2 1 0,7 9 0,3 2 0,4 3 0,-3 0 0,-6-7 0,-1 2 0,0-3 0,-1-1 0,-1 0 0,-2-2 0,-2-3 0,-3-3 0,-8-1 0,-5-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1904">12532 1288 24575,'11'-2'0,"11"4"0,9 5 0,7 8 0,8 10 0,-4 3 0,7 1 0,-5 5 0,-7-5 0,-5-2 0,-10-8 0,-4-4 0,0-2 0,-4 0 0,-1-1 0,-2-2 0,-1 0 0,-3-1 0,1-1 0,-3-1 0,-3-2 0,0 2 0,-2 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 1 0,0 0 0,-2-3 0,-2-1 0,-3-3 0,-1-2 0,0 0 0,0 0 0,-1 0 0,-2 0 0,-1 0 0,-1 0 0,-2 0 0,2 0 0,-3 0 0,1 0 0,-1 0 0,-1 0 0,-1 0 0,-3 0 0,3 0 0,0 0 0,-1 0 0,2 0 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,3 0 0,4 0 0,0 1 0,3 3 0,1 2 0,0 3 0,0-1 0,0 1 0,0 0 0,0 0 0,2 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,0 0 0,3-4 0,-1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5662">10677 994 24575,'-10'2'0,"3"2"0,0 2 0,-2 2 0,0 1 0,-6 0 0,-1 1 0,1 0 0,-2-1 0,1 1 0,1-1 0,3 0 0,3-3 0,0-1 0,0 0 0,-1 1 0,3 0 0,-1 1 0,-1-1 0,2 0 0,1 0 0,0 0 0,-4 0 0,0 1 0,-3 0 0,1 2 0,4 0 0,0 2 0,-1-1 0,2 2 0,2 1 0,2 2 0,2-2 0,0 0 0,1-1 0,0-3 0,0 3 0,-1 1 0,1-2 0,0 1 0,0-3 0,0-1 0,2-1 0,1-2 0,3-1 0,3 1 0,0-1 0,0 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,0-1 0,-1 0 0,0-2 0,1 0 0,-1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,2 0 0,-2 0 0,1 0 0,2 0 0,3 0 0,3-2 0,2-1 0,1-2 0,-1 0 0,0 2 0,0-4 0,2 3 0,0-3 0,-1 2 0,3-1 0,-1 0 0,-1 1 0,-1-1 0,-1 3 0,1 0 0,0 3 0,0 0 0,-1 0 0,-2 0 0,0 0 0,0 0 0,4 0 0,2 0 0,0 0 0,-2 0 0,-3 0 0,-2 2 0,-4 0 0,-1 2 0,-4 3 0,-3 0 0,-3 2 0,-2-1 0,0-1 0,0 0 0,0 1 0,0 1 0,0 0 0,0 2 0,0 1 0,0 2 0,0 1 0,0 1 0,0 0 0,0-1 0,0 2 0,-2-3 0,-1-1 0,-1-1 0,-2-1 0,2-1 0,-2 0 0,-1 0 0,1-1 0,0 1 0,-1-2 0,-1 1 0,-1-2 0,1 0 0,2-2 0,-1-3 0,0 0 0,-1-2 0,1 2 0,1 0 0,0 0 0,-1 0 0,-4-2 0,-1 0 0,0 0 0,-1 0 0,2 0 0,2 0 0,1 0 0,0 0 0,0 0 0,-2 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-2 0 0,3 0 0,0 0 0,0 0 0,0 0 0,-3 0 0,-1 0 0,-1 0 0,-2 0 0,2 0 0,0 0 0,1 0 0,2 0 0,1 0 0,-1-2 0,2 0 0,0-2 0,-1-1 0,-1-2 0,-2-1 0,-1 0 0,1 1 0,2 1 0,0-1 0,2-3 0,1 1 0,2 0 0,2-3 0,1 0 0,2-2 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0-2 0,0 1 0,0 1 0,0 0 0,0 1 0,2 3 0,2-1 0,2 0 0,1-2 0,-1 0 0,-2 1 0,3-1 0,-1 0 0,-1-2 0,2 1 0,-2 2 0,0 2 0,2-2 0,0 0 0,3 2 0,-3-1 0,1 2 0,-4 1 0,0 1 0,0 0 0,-2 0 0,0 0 0,-1-2 0,0 2 0,-1-1 0,0 0 0,-2 2 0,-2 3 0,-2 2 0,-3 2 0,0 0 0,-1 0 0,1 0 0,3 1 0,1 0 0,4 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5178,8 +5175,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'49'0'0,"-8"0"0,31 0 0,-27 0 0,12 0 0,9 0 0,6 9 0,-2 1 0,-10 7 0,-1 7 0,4-1 0,7 9 0,-6 1 0,-2 6 0,-1-3 0,0 5 0,2 3 0,-7-3 0,1 5 0,-6-3 0,-5-7 0,-3-3 0,-2 0 0,-6-3 0,-2 4 0,5 4 0,3 4 0,5 6 0,-1-3 0,-3 1 0,-2 0 0,-4-5 0,-4-1 0,-3 0 0,-3-3 0,-2-3 0,-2-1 0,-2-6 0,-1 2 0,1 1 0,0 3 0,6 8 0,5 5 0,1 1 0,1 5 0,-4-4 0,-3-5 0,-3-6 0,-6-8 0,-3-4 0,-4-7 0,0-1 0,-1-3 0,-1-3 0,0 1 0,1 1 0,1 6 0,1 6 0,1 2 0,2 3 0,1 1 0,1-2 0,-2-1 0,0-2 0,-1-4 0,-3-3 0,-3-6 0,-2-5 0,-3 0 0,-2 0 0,0 2 0,0-1 0,0 1 0,0 0 0,0-2 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0 0 0,0-4 0,0-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1690">2058 2023 24575,'21'0'0,"11"0"0,17 0 0,2 0 0,5 0 0,-17 0 0,1 0 0,-3 0 0,-9 0 0,1 0 0,-17 1 0,-5 3 0,-3 2 0,-3 3 0,-1-1 0,0 1 0,0-5 0,0-3 0,0-5 0,0-5 0,0-4 0,0-7 0,0-2 0,0-1 0,0-1 0,0 4 0,0 1 0,0 1 0,0 3 0,0 2 0,0 0 0,0 1 0,0 1 0,0 1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,2 3 0,0 0 0,1 0 0,0 2 0,-3 0 0,1 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'49'0'0,"-8"0"0,31 0 0,-27 0 0,13 0 0,8 0 0,6 9 0,-2 1 0,-10 6 0,-1 8 0,4-2 0,7 9 0,-5 2 0,-3 5 0,-1-3 0,0 5 0,2 3 0,-7-3 0,1 5 0,-6-3 0,-4-7 0,-4-3 0,-2 1 0,-6-4 0,-2 4 0,5 4 0,3 4 0,5 6 0,-1-3 0,-3 1 0,-2 0 0,-4-5 0,-4-1 0,-2 0 0,-4-2 0,-2-4 0,-2-1 0,-2-5 0,-1 1 0,1 1 0,0 3 0,6 8 0,5 5 0,1 1 0,1 5 0,-4-4 0,-3-5 0,-3-6 0,-6-7 0,-3-5 0,-4-6 0,0-2 0,-1-2 0,-1-3 0,0 0 0,1 2 0,1 6 0,1 5 0,1 3 0,3 2 0,0 1 0,1-2 0,-2 0 0,0-3 0,-1-3 0,-3-4 0,-3-5 0,-2-5 0,-3 0 0,-2-1 0,0 3 0,0-1 0,0 1 0,0 0 0,0-3 0,0 2 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-4 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1690">2062 1977 24575,'21'0'0,"11"0"0,17 0 0,2 0 0,6 0 0,-18 0 0,1 0 0,-3 0 0,-9 0 0,1 0 0,-17 1 0,-5 3 0,-3 2 0,-3 3 0,-1-2 0,0 2 0,0-5 0,0-3 0,0-5 0,0-5 0,0-3 0,0-8 0,0-1 0,0-2 0,0 0 0,0 3 0,0 2 0,0 0 0,0 3 0,0 3 0,0-1 0,0 1 0,0 1 0,0 2 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,2 3 0,0 0 0,1 0 0,0 3 0,-3-1 0,1 3 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5502,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04636A38-34A8-414B-8019-4143CB6A64BB}">
   <dimension ref="D2:Y118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="90" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5953,17 +5950,17 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -5974,15 +5971,15 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -5993,15 +5990,15 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -6012,15 +6009,15 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -6031,15 +6028,15 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -6104,2280 +6101,2281 @@
     </row>
     <row r="32" spans="4:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="15"/>
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="19"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="17"/>
     </row>
     <row r="35" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24" t="s">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Q35" s="23" t="s">
+      <c r="Q35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="19"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="17"/>
     </row>
     <row r="36" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="19"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="17"/>
     </row>
     <row r="37" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23" t="s">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="19"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="17"/>
     </row>
     <row r="38" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23" t="s">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="19"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="17"/>
     </row>
     <row r="39" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23" t="s">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="19"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="17"/>
     </row>
     <row r="40" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24" t="s">
+      <c r="D40" s="11"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23" t="s">
+      <c r="M40" s="5"/>
+      <c r="N40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="19"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="17"/>
     </row>
     <row r="41" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23" t="s">
+      <c r="M41" s="5"/>
+      <c r="N41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="19"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="17"/>
     </row>
     <row r="42" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23" t="s">
+      <c r="D42" s="11"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="19"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="17"/>
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D43" s="22"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="24" t="s">
+      <c r="D43" s="11"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23" t="s">
+      <c r="O43" s="5"/>
+      <c r="P43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="19"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="17"/>
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D44" s="22"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="25" t="s">
+      <c r="D44" s="11"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23" t="s">
+      <c r="O44" s="5"/>
+      <c r="P44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="19"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="17"/>
     </row>
     <row r="45" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D45" s="22"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="19"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="17"/>
     </row>
     <row r="46" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P46" s="24" t="s">
+      <c r="P46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23" t="s">
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="19"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="17"/>
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D47" s="22"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="19"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="17"/>
     </row>
     <row r="48" spans="4:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="26" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23" t="s">
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="19"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="17"/>
     </row>
     <row r="49" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D49" s="22"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="25" t="s">
+      <c r="D49" s="11"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="19"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="17"/>
     </row>
     <row r="50" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23" t="s">
+      <c r="D50" s="11"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="10">
+        <v>12</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="19"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="17"/>
     </row>
     <row r="51" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="19"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="17"/>
     </row>
     <row r="52" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D52" s="22"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23" t="s">
+      <c r="D52" s="11"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="19"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="17"/>
     </row>
     <row r="53" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D53" s="22"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="24" t="s">
+      <c r="D53" s="11"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23" t="s">
+      <c r="O53" s="5"/>
+      <c r="P53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="19"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="17"/>
     </row>
     <row r="54" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23" t="s">
+      <c r="D54" s="11"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23" t="s">
+      <c r="O54" s="5"/>
+      <c r="P54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="19"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="17"/>
     </row>
     <row r="55" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D55" s="22"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23" t="s">
+      <c r="D55" s="11"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23" t="s">
+      <c r="O55" s="5"/>
+      <c r="P55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="19"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="17"/>
     </row>
     <row r="56" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D56" s="22"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="19"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="17"/>
     </row>
     <row r="57" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D57" s="22"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="19"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="17"/>
     </row>
     <row r="58" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="19"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="17"/>
     </row>
     <row r="59" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D59" s="22"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23" t="s">
+      <c r="D59" s="11"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="19"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="17"/>
     </row>
     <row r="60" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D60" s="22"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23" t="s">
+      <c r="D60" s="11"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="19"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="17"/>
     </row>
     <row r="61" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24" t="s">
+      <c r="D61" s="11"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23" t="s">
+      <c r="M61" s="5"/>
+      <c r="N61" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="19"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="17"/>
     </row>
     <row r="62" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23" t="s">
+      <c r="D62" s="11"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23" t="s">
+      <c r="M62" s="5"/>
+      <c r="N62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18"/>
-      <c r="Y62" s="19"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="17"/>
     </row>
     <row r="63" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D63" s="22"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23" t="s">
+      <c r="D63" s="11"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="19"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="17"/>
     </row>
     <row r="64" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D64" s="22"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="24" t="s">
+      <c r="D64" s="11"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23" t="s">
+      <c r="O64" s="5"/>
+      <c r="P64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="19"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="17"/>
     </row>
     <row r="65" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D65" s="22"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23" t="s">
+      <c r="D65" s="11"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23" t="s">
+      <c r="O65" s="5"/>
+      <c r="P65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18"/>
-      <c r="Y65" s="19"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="17"/>
     </row>
     <row r="66" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D66" s="22"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23" t="s">
+      <c r="D66" s="11"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23" t="s">
+      <c r="O66" s="5"/>
+      <c r="P66" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="19"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="17"/>
     </row>
     <row r="67" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D67" s="22"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23" t="s">
+      <c r="D67" s="11"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
-      <c r="Y67" s="19"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="17"/>
     </row>
     <row r="68" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D68" s="22"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23" t="s">
+      <c r="D68" s="11"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="23"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
-      <c r="Y68" s="19"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="17"/>
     </row>
     <row r="69" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D69" s="22"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24" t="s">
+      <c r="D69" s="11"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23" t="s">
+      <c r="M69" s="5"/>
+      <c r="N69" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="18"/>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="19"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="17"/>
     </row>
     <row r="70" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D70" s="22"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23" t="s">
+      <c r="D70" s="11"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23" t="s">
+      <c r="M70" s="5"/>
+      <c r="N70" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="18"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="19"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="17"/>
     </row>
     <row r="71" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D71" s="22"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23" t="s">
+      <c r="D71" s="11"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23" t="s">
+      <c r="M71" s="5"/>
+      <c r="N71" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="23"/>
-      <c r="Y71" s="27"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="12"/>
     </row>
     <row r="72" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D72" s="22"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23"/>
-      <c r="R72" s="23"/>
-      <c r="S72" s="23"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="23"/>
-      <c r="W72" s="23"/>
-      <c r="X72" s="23"/>
-      <c r="Y72" s="27"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="12"/>
     </row>
     <row r="73" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
-      <c r="R73" s="23"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="23"/>
-      <c r="W73" s="23"/>
-      <c r="X73" s="23"/>
-      <c r="Y73" s="27"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="12"/>
     </row>
     <row r="74" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D74" s="22"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="23"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="23"/>
-      <c r="W74" s="23"/>
-      <c r="X74" s="23"/>
-      <c r="Y74" s="27"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="12"/>
     </row>
     <row r="75" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D75" s="22"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-      <c r="X75" s="23"/>
-      <c r="Y75" s="27"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="12"/>
     </row>
     <row r="76" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D76" s="22"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23" t="s">
+      <c r="D76" s="11"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
-      <c r="X76" s="23"/>
-      <c r="Y76" s="27"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="12"/>
     </row>
     <row r="77" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D77" s="22"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23" t="s">
+      <c r="D77" s="11"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="23"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="23"/>
-      <c r="W77" s="23"/>
-      <c r="X77" s="23"/>
-      <c r="Y77" s="27"/>
+      <c r="K77" s="10">
+        <v>13</v>
+      </c>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="12"/>
     </row>
     <row r="78" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D78" s="22"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="24" t="s">
+      <c r="D78" s="11"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23" t="s">
+      <c r="K78" s="5"/>
+      <c r="L78" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="23"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="23"/>
-      <c r="W78" s="23"/>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="27"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="12"/>
     </row>
     <row r="79" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D79" s="22"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23" t="s">
+      <c r="D79" s="11"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23" t="s">
+      <c r="K79" s="5"/>
+      <c r="L79" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="23"/>
-      <c r="R79" s="23"/>
-      <c r="S79" s="23"/>
-      <c r="T79" s="23"/>
-      <c r="U79" s="23"/>
-      <c r="V79" s="23"/>
-      <c r="W79" s="23"/>
-      <c r="X79" s="23"/>
-      <c r="Y79" s="27"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="12"/>
     </row>
     <row r="80" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D80" s="22"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23" t="s">
+      <c r="D80" s="11"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23" t="s">
+      <c r="K80" s="5"/>
+      <c r="L80" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="23"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="23"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="23"/>
-      <c r="W80" s="23"/>
-      <c r="X80" s="23"/>
-      <c r="Y80" s="27"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="12"/>
     </row>
     <row r="81" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D81" s="22"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24" t="s">
+      <c r="D81" s="11"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23" t="s">
+      <c r="M81" s="5"/>
+      <c r="N81" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O81" s="23"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="23"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="23"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="23"/>
-      <c r="W81" s="23"/>
-      <c r="X81" s="23"/>
-      <c r="Y81" s="27"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="12"/>
     </row>
     <row r="82" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D82" s="22"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23" t="s">
+      <c r="M82" s="5"/>
+      <c r="N82" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O82" s="23"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="23"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="23"/>
-      <c r="W82" s="23"/>
-      <c r="X82" s="23"/>
-      <c r="Y82" s="27"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="12"/>
     </row>
     <row r="83" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D83" s="22"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23" t="s">
+      <c r="D83" s="11"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O83" s="23"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="23"/>
-      <c r="R83" s="23"/>
-      <c r="S83" s="23"/>
-      <c r="T83" s="23"/>
-      <c r="U83" s="23"/>
-      <c r="V83" s="23"/>
-      <c r="W83" s="23"/>
-      <c r="X83" s="23"/>
-      <c r="Y83" s="27"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="12"/>
     </row>
     <row r="84" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D84" s="13"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="24" t="s">
+      <c r="D84" s="11"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12" t="s">
+      <c r="O84" s="5"/>
+      <c r="P84" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="12"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="12"/>
-      <c r="Y84" s="14"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="12"/>
     </row>
     <row r="85" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D85" s="13"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12" t="s">
+      <c r="D85" s="11"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="12"/>
-      <c r="Y85" s="14"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="12"/>
     </row>
     <row r="86" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D86" s="13"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12" t="s">
+      <c r="D86" s="11"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O86" s="12"/>
-      <c r="P86" s="23" t="s">
+      <c r="O86" s="5"/>
+      <c r="P86" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="12"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="12"/>
-      <c r="Y86" s="14"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="12"/>
     </row>
     <row r="87" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D87" s="13"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="23" t="s">
+      <c r="D87" s="11"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12"/>
-      <c r="U87" s="12"/>
-      <c r="V87" s="12"/>
-      <c r="W87" s="12"/>
-      <c r="X87" s="12"/>
-      <c r="Y87" s="14"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="12"/>
     </row>
     <row r="88" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D88" s="13"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="12"/>
-      <c r="Y88" s="14"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="12"/>
     </row>
     <row r="89" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D89" s="13"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89" s="12"/>
-      <c r="U89" s="12"/>
-      <c r="V89" s="12"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="12"/>
-      <c r="Y89" s="14"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="12"/>
     </row>
     <row r="90" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D90" s="13"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12" t="s">
+      <c r="D90" s="11"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
-      <c r="U90" s="12"/>
-      <c r="V90" s="12"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="12"/>
-      <c r="Y90" s="14"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="12"/>
     </row>
     <row r="91" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D91" s="13"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12" t="s">
+      <c r="D91" s="11"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
-      <c r="U91" s="12"/>
-      <c r="V91" s="12"/>
-      <c r="W91" s="12"/>
-      <c r="X91" s="12"/>
-      <c r="Y91" s="14"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="12"/>
     </row>
     <row r="92" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D92" s="13"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="24" t="s">
+      <c r="D92" s="11"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12" t="s">
+      <c r="M92" s="5"/>
+      <c r="N92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="12"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="12"/>
-      <c r="Y92" s="14"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="12"/>
     </row>
     <row r="93" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D93" s="13"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12" t="s">
+      <c r="D93" s="11"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="12"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="12"/>
-      <c r="Y93" s="14"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="12"/>
     </row>
     <row r="94" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D94" s="13"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12" t="s">
+      <c r="D94" s="11"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M94" s="12"/>
-      <c r="N94" s="23" t="s">
+      <c r="M94" s="5"/>
+      <c r="N94" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="12"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="12"/>
-      <c r="Y94" s="14"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="12"/>
     </row>
     <row r="95" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D95" s="13"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12" t="s">
+      <c r="D95" s="11"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
-      <c r="U95" s="12"/>
-      <c r="V95" s="12"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="12"/>
-      <c r="Y95" s="14"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="12"/>
     </row>
     <row r="96" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D96" s="13"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="12"/>
-      <c r="T96" s="12"/>
-      <c r="U96" s="12"/>
-      <c r="V96" s="12"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="12"/>
-      <c r="Y96" s="14"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="12"/>
     </row>
     <row r="97" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D97" s="13"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
-      <c r="T97" s="12"/>
-      <c r="U97" s="12"/>
-      <c r="V97" s="12"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="12"/>
-      <c r="Y97" s="14"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="12"/>
     </row>
     <row r="98" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D98" s="13"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23" t="s">
+      <c r="D98" s="11"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="23"/>
-      <c r="R98" s="23"/>
-      <c r="S98" s="12"/>
-      <c r="T98" s="12"/>
-      <c r="U98" s="12"/>
-      <c r="V98" s="12"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="12"/>
-      <c r="Y98" s="14"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="12"/>
     </row>
     <row r="99" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D99" s="13"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23" t="s">
+      <c r="D99" s="11"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="23"/>
-      <c r="P99" s="23"/>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="23"/>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
-      <c r="U99" s="12"/>
-      <c r="V99" s="12"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="12"/>
-      <c r="Y99" s="14"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="12"/>
     </row>
     <row r="100" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D100" s="13"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="24" t="s">
+      <c r="D100" s="11"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23" t="s">
+      <c r="K100" s="5"/>
+      <c r="L100" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="23"/>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="23"/>
-      <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
-      <c r="U100" s="12"/>
-      <c r="V100" s="12"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="12"/>
-      <c r="Y100" s="14"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="12"/>
     </row>
     <row r="101" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D101" s="13"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23" t="s">
+      <c r="D101" s="11"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K101" s="23"/>
-      <c r="L101" s="23" t="s">
+      <c r="K101" s="5"/>
+      <c r="L101" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M101" s="23"/>
-      <c r="N101" s="23"/>
-      <c r="O101" s="23"/>
-      <c r="P101" s="23"/>
-      <c r="Q101" s="23"/>
-      <c r="R101" s="23"/>
-      <c r="S101" s="12"/>
-      <c r="T101" s="12"/>
-      <c r="U101" s="12"/>
-      <c r="V101" s="12"/>
-      <c r="W101" s="12"/>
-      <c r="X101" s="12"/>
-      <c r="Y101" s="14"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="12"/>
     </row>
     <row r="102" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D102" s="13"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23" t="s">
+      <c r="D102" s="11"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M102" s="23"/>
-      <c r="N102" s="23"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="23"/>
-      <c r="R102" s="23"/>
-      <c r="S102" s="12"/>
-      <c r="T102" s="12"/>
-      <c r="U102" s="12"/>
-      <c r="V102" s="12"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="12"/>
-      <c r="Y102" s="14"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="12"/>
     </row>
     <row r="103" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D103" s="13"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24" t="s">
+      <c r="D103" s="11"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M103" s="23"/>
-      <c r="N103" s="23" t="s">
+      <c r="M103" s="5"/>
+      <c r="N103" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="23"/>
-      <c r="S103" s="12"/>
-      <c r="T103" s="12"/>
-      <c r="U103" s="12"/>
-      <c r="V103" s="12"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="12"/>
-      <c r="Y103" s="14"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="12"/>
     </row>
     <row r="104" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D104" s="13"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="23"/>
-      <c r="N104" s="23" t="s">
+      <c r="D104" s="11"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O104" s="23"/>
-      <c r="P104" s="23"/>
-      <c r="Q104" s="23"/>
-      <c r="R104" s="23"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
-      <c r="U104" s="12"/>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="14"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="12"/>
     </row>
     <row r="105" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D105" s="13"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="23" t="s">
+      <c r="D105" s="11"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M105" s="23"/>
-      <c r="N105" s="23" t="s">
+      <c r="M105" s="5"/>
+      <c r="N105" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O105" s="23"/>
-      <c r="P105" s="23"/>
-      <c r="Q105" s="23"/>
-      <c r="R105" s="23"/>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="12"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="14"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="12"/>
     </row>
     <row r="106" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D106" s="13"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12" t="s">
+      <c r="D106" s="11"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M106" s="12"/>
-      <c r="N106" s="23"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
-      <c r="T106" s="12"/>
-      <c r="U106" s="12"/>
-      <c r="V106" s="12"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="12"/>
-      <c r="Y106" s="14"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="12"/>
     </row>
     <row r="107" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D107" s="13"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
-      <c r="U107" s="12"/>
-      <c r="V107" s="12"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="12"/>
-      <c r="Y107" s="14"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="12"/>
     </row>
     <row r="108" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D108" s="13"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
-      <c r="U108" s="12"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="14"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="12"/>
     </row>
     <row r="109" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D109" s="13"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="23"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="14"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="12"/>
     </row>
     <row r="110" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D110" s="13"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="23" t="s">
+      <c r="D110" s="11"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="12"/>
-      <c r="T110" s="12"/>
-      <c r="U110" s="12"/>
-      <c r="V110" s="12"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="12"/>
-      <c r="Y110" s="14"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="5"/>
+      <c r="X110" s="5"/>
+      <c r="Y110" s="12"/>
     </row>
     <row r="111" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D111" s="13"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="23" t="s">
+      <c r="D111" s="11"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-      <c r="T111" s="12"/>
-      <c r="U111" s="12"/>
-      <c r="V111" s="12"/>
-      <c r="W111" s="12"/>
-      <c r="X111" s="12"/>
-      <c r="Y111" s="14"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="5"/>
+      <c r="Y111" s="12"/>
     </row>
     <row r="112" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D112" s="13"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="24" t="s">
+      <c r="D112" s="11"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12" t="s">
+      <c r="K112" s="5"/>
+      <c r="L112" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
-      <c r="S112" s="12"/>
-      <c r="T112" s="12"/>
-      <c r="U112" s="12"/>
-      <c r="V112" s="12"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="12"/>
-      <c r="Y112" s="14"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="5"/>
+      <c r="X112" s="5"/>
+      <c r="Y112" s="12"/>
     </row>
     <row r="113" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D113" s="13"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="23" t="s">
+      <c r="D113" s="11"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12" t="s">
+      <c r="K113" s="5"/>
+      <c r="L113" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="12"/>
-      <c r="S113" s="12"/>
-      <c r="T113" s="12"/>
-      <c r="U113" s="12"/>
-      <c r="V113" s="12"/>
-      <c r="W113" s="12"/>
-      <c r="X113" s="12"/>
-      <c r="Y113" s="14"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="12"/>
     </row>
     <row r="114" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D114" s="13"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="23" t="s">
+      <c r="D114" s="11"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
-      <c r="S114" s="12"/>
-      <c r="T114" s="12"/>
-      <c r="U114" s="12"/>
-      <c r="V114" s="12"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="12"/>
-      <c r="Y114" s="14"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="12"/>
     </row>
     <row r="115" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D115" s="13"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12"/>
-      <c r="S115" s="12"/>
-      <c r="T115" s="12"/>
-      <c r="U115" s="12"/>
-      <c r="V115" s="12"/>
-      <c r="W115" s="12"/>
-      <c r="X115" s="12"/>
-      <c r="Y115" s="14"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
+      <c r="Y115" s="12"/>
     </row>
     <row r="116" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D116" s="13"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="23"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
-      <c r="T116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="12"/>
-      <c r="Y116" s="14"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+      <c r="Y116" s="12"/>
     </row>
     <row r="117" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D117" s="13"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="V117" s="12"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="14"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
+      <c r="X117" s="5"/>
+      <c r="Y117" s="12"/>
     </row>
     <row r="118" spans="4:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D118" s="28"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="15"/>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="15"/>
-      <c r="R118" s="15"/>
-      <c r="S118" s="29"/>
-      <c r="T118" s="29"/>
-      <c r="U118" s="29"/>
-      <c r="V118" s="29"/>
-      <c r="W118" s="29"/>
-      <c r="X118" s="29"/>
-      <c r="Y118" s="30"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="23"/>
+      <c r="V118" s="23"/>
+      <c r="W118" s="23"/>
+      <c r="X118" s="23"/>
+      <c r="Y118" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
